--- a/Dieta.xlsx
+++ b/Dieta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79f1909e597772fb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79f1909e597772fb/Dieta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="636" documentId="8_{90986033-560C-486B-8143-87D885832CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26A7E032-4CFC-466D-B05C-F9048ED4AFC2}"/>
+  <xr:revisionPtr revIDLastSave="860" documentId="8_{90986033-560C-486B-8143-87D885832CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9725FA2-105E-4A98-8364-C1C496FF40E2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EEAF446F-95DF-4CB5-9D66-62E4FEDCD420}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
   <si>
     <t>Pão Integral</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Café com leite</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1 fatia (30g)</t>
-  </si>
-  <si>
     <t>15g</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t xml:space="preserve">Aveia </t>
   </si>
   <si>
-    <t>Patinho moído</t>
-  </si>
-  <si>
     <t>Arroz branco</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>Massa 85g</t>
   </si>
   <si>
-    <t>Pera 100g | Mamão 115g | Melão 125g | Uva 80g | Morango 160g</t>
-  </si>
-  <si>
     <t>Patinho 60g | Tilápia 80g | Lombo Suíno 60g</t>
   </si>
   <si>
@@ -216,15 +207,9 @@
     <t>150 ml</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>Carboidrado</t>
   </si>
   <si>
-    <t>180g</t>
-  </si>
-  <si>
     <t>Patinho</t>
   </si>
   <si>
@@ -246,65 +231,86 @@
     <t>2 (40g)</t>
   </si>
   <si>
-    <t>Queijo</t>
-  </si>
-  <si>
-    <t>1 fatia</t>
-  </si>
-  <si>
     <t>AJUSTAR</t>
   </si>
   <si>
-    <t>Pré Treino 1</t>
-  </si>
-  <si>
-    <t>Pré Treino 2</t>
-  </si>
-  <si>
-    <t>Pré Treino 3</t>
-  </si>
-  <si>
-    <t>Pré Treino 4</t>
-  </si>
-  <si>
-    <t>Almoço 1</t>
-  </si>
-  <si>
-    <t>Almoço 2</t>
-  </si>
-  <si>
-    <t>Café da manhã 1</t>
-  </si>
-  <si>
-    <t>Jantar 1</t>
-  </si>
-  <si>
-    <t>Ceia 1</t>
-  </si>
-  <si>
-    <t>Lanche 2 - 1</t>
-  </si>
-  <si>
-    <t>Lanche 2 - 2</t>
-  </si>
-  <si>
-    <t>Lanche 2 - 3</t>
-  </si>
-  <si>
-    <t>Jantar 2</t>
-  </si>
-  <si>
-    <t>Ceia 2</t>
-  </si>
-  <si>
-    <t>Ceia 3</t>
+    <t>Café da manhã (1)</t>
+  </si>
+  <si>
+    <t>Pré Treino (1)</t>
+  </si>
+  <si>
+    <t>Almoço (1)</t>
+  </si>
+  <si>
+    <t>Lanche 2 (1)</t>
+  </si>
+  <si>
+    <t>Janta (1)</t>
+  </si>
+  <si>
+    <t>Ceia (1)</t>
+  </si>
+  <si>
+    <t>Pré Treino (2)</t>
+  </si>
+  <si>
+    <t>Pré Treino (3)</t>
+  </si>
+  <si>
+    <t>Pré Treino (4)</t>
+  </si>
+  <si>
+    <t>Almoço (2)</t>
+  </si>
+  <si>
+    <t>Lanche 2 (2)</t>
+  </si>
+  <si>
+    <t>Lanche 2 (3)</t>
+  </si>
+  <si>
+    <t>Ceia (2)</t>
+  </si>
+  <si>
+    <t>Ceia (3)</t>
+  </si>
+  <si>
+    <t>Janta (2)</t>
+  </si>
+  <si>
+    <t>1 fatia (30g)</t>
+  </si>
+  <si>
+    <t>Bolacha de Arroz</t>
+  </si>
+  <si>
+    <t>Geleia de frutas</t>
+  </si>
+  <si>
+    <t>Pré Treino (5)</t>
+  </si>
+  <si>
+    <t>40g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20g Doce de leite </t>
+  </si>
+  <si>
+    <t>100g Pera | 115g Mamão | 125g Melão | 80g Uva | 160g Morango</t>
+  </si>
+  <si>
+    <t>150g</t>
+  </si>
+  <si>
+    <t>Janta (Domingo)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,8 +364,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,12 +388,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -935,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -952,9 +960,194 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -964,241 +1157,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1216,10 +1184,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1539,411 +1503,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4246DEA4-48F2-43EF-A60C-C727AC3FFA78}">
-  <dimension ref="A1:U84"/>
+  <dimension ref="A1:T89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="4"/>
     <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>78</v>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="27">
+      <c r="C2" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="22">
         <v>1.32</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="20">
         <v>10.8</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="24">
         <v>3.9</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="22">
         <v>71</v>
       </c>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="H2" s="62"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="65"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="8">
         <v>4.37</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="9">
         <v>0.34</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="17">
         <v>5.54</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="14">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="65"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="16">
-        <v>4</v>
-      </c>
-      <c r="E4" s="14">
-        <v>1</v>
-      </c>
-      <c r="F4" s="23">
-        <v>3.3</v>
-      </c>
-      <c r="G4" s="20">
-        <v>27</v>
-      </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="G4" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="65"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="15">
+        <v>55</v>
+      </c>
+      <c r="D5" s="10">
         <v>1.53</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="13">
         <v>3.71</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="19">
         <v>2.41</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="16">
         <v>39</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="6">
-        <f>SUM(D2:D5)</f>
-        <v>11.22</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" ref="E6:G6" si="0">SUM(E2:E5)</f>
-        <v>15.850000000000001</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>15.149999999999999</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="0"/>
-        <v>202</v>
-      </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-    </row>
-    <row r="7" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="36"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>72</v>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="63"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="57">
+        <v>0.33</v>
+      </c>
+      <c r="E8" s="18">
+        <v>22.84</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G8" s="58">
+        <v>89</v>
+      </c>
+      <c r="N8" s="67"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="65"/>
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="91">
-        <v>0.33</v>
-      </c>
-      <c r="E8" s="23">
-        <v>22.84</v>
-      </c>
-      <c r="F8" s="23">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="G8" s="92">
-        <v>89</v>
-      </c>
-      <c r="N8" s="38"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="37"/>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="46">
+        <v>8.5</v>
+      </c>
+      <c r="F9" s="19">
+        <v>2.1</v>
+      </c>
+      <c r="G9" s="16">
+        <v>51</v>
+      </c>
+      <c r="N9" s="67"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="N10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="1:20" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="63"/>
+      <c r="N11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E9" s="77">
-        <v>8.5</v>
-      </c>
-      <c r="F9" s="24">
-        <v>2.1</v>
-      </c>
-      <c r="G9" s="21">
-        <v>51</v>
-      </c>
-      <c r="N9" s="38"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="37"/>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="6">
-        <f>SUM(D8:D9)</f>
-        <v>1.23</v>
-      </c>
-      <c r="E10" s="6">
-        <f>SUM(E8:E9)</f>
-        <v>31.34</v>
-      </c>
-      <c r="F10" s="6">
-        <f>SUM(F8:F9)</f>
-        <v>3.1900000000000004</v>
-      </c>
-      <c r="G10" s="6">
-        <f>SUM(G8:G9)</f>
-        <v>140</v>
-      </c>
-      <c r="N10" s="40"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="37"/>
-    </row>
-    <row r="11" spans="1:21" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="37"/>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="34">
+        <v>0.26</v>
+      </c>
+      <c r="E12" s="35">
+        <v>31</v>
+      </c>
+      <c r="F12" s="35">
+        <v>2.75</v>
+      </c>
+      <c r="G12" s="36">
+        <v>141</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="65"/>
+      <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="37">
+        <v>8.27</v>
+      </c>
+      <c r="E13" s="32">
+        <v>0</v>
+      </c>
+      <c r="F13" s="32">
+        <v>42.89</v>
+      </c>
+      <c r="G13" s="38">
+        <v>254</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="65"/>
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="65">
-        <v>0.26</v>
-      </c>
-      <c r="E12" s="66">
-        <v>31</v>
-      </c>
-      <c r="F12" s="66">
-        <v>2.75</v>
-      </c>
-      <c r="G12" s="67">
-        <v>141</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="37"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="68">
-        <v>4.38</v>
-      </c>
-      <c r="E13" s="62">
-        <v>0</v>
-      </c>
-      <c r="F13" s="62">
-        <v>44.2</v>
-      </c>
-      <c r="G13" s="69">
-        <v>229</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" t="s">
-        <v>71</v>
-      </c>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="37"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="70">
+      <c r="D14" s="39">
         <v>0.32</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="40">
         <v>14.23</v>
       </c>
-      <c r="F14" s="71">
+      <c r="F14" s="40">
         <v>5.32</v>
       </c>
-      <c r="G14" s="72">
+      <c r="G14" s="41">
         <v>79</v>
       </c>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="37"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="6">
-        <f>SUM(D12:D14)</f>
-        <v>4.96</v>
-      </c>
-      <c r="E15" s="6">
-        <f>SUM(E12:E14)</f>
-        <v>45.230000000000004</v>
-      </c>
-      <c r="F15" s="6">
-        <f>SUM(F12:F14)</f>
-        <v>52.27</v>
-      </c>
-      <c r="G15" s="6">
-        <f>SUM(G12:G14)</f>
-        <v>449</v>
-      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
       <c r="N15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1951,15 +1827,15 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:21" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
+    <row r="16" spans="1:20" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="63"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -1967,26 +1843,28 @@
     </row>
     <row r="17" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="73">
+        <v>14</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="42">
         <v>0.23</v>
       </c>
-      <c r="E17" s="74">
+      <c r="E17" s="43">
         <v>19.059999999999999</v>
       </c>
-      <c r="F17" s="74">
+      <c r="F17" s="43">
         <v>0.36</v>
       </c>
-      <c r="G17" s="75">
+      <c r="G17" s="44">
         <v>72</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="N17" s="1"/>
       <c r="P17" s="1"/>
@@ -1996,131 +1874,107 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="6">
-        <f>SUM(D17)</f>
-        <v>0.23</v>
-      </c>
-      <c r="E18" s="6">
-        <f t="shared" ref="E18:G18" si="1">SUM(E17)</f>
-        <v>19.059999999999999</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="1"/>
-        <v>0.36</v>
-      </c>
-      <c r="G18" s="6">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:20" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="63"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>81</v>
+      <c r="A20" s="65" t="s">
+        <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="47">
+        <v>0.04</v>
+      </c>
+      <c r="E20" s="24">
+        <v>18.11</v>
+      </c>
+      <c r="F20" s="24">
+        <v>1.41</v>
+      </c>
+      <c r="G20" s="45">
+        <v>77</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="65"/>
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="78">
-        <v>0.04</v>
-      </c>
-      <c r="E20" s="30">
-        <v>18.11</v>
-      </c>
-      <c r="F20" s="30">
-        <v>1.41</v>
-      </c>
-      <c r="G20" s="76">
-        <v>77</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="79">
+      <c r="D21" s="48">
         <v>2.5299999999999998</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="17">
         <v>0.39</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="17">
         <v>20.52</v>
       </c>
-      <c r="G21" s="80">
+      <c r="G21" s="49">
         <v>112</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="81">
-        <v>4</v>
-      </c>
-      <c r="E22" s="24">
-        <v>1</v>
-      </c>
-      <c r="F22" s="24">
-        <v>3.3</v>
-      </c>
-      <c r="G22" s="82">
-        <v>27</v>
+        <v>49</v>
+      </c>
+      <c r="D22" s="50">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0.65</v>
+      </c>
+      <c r="G22" s="51">
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="6">
-        <f t="shared" ref="D23:F23" si="2">SUM(D20:D22)</f>
-        <v>6.57</v>
-      </c>
-      <c r="E23" s="6">
-        <f t="shared" si="2"/>
-        <v>19.5</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="2"/>
-        <v>25.23</v>
-      </c>
-      <c r="G23" s="6">
-        <f>SUM(G20:G22)</f>
-        <v>216</v>
-      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:20" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="63"/>
       <c r="N24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -2129,29 +1983,29 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>79</v>
+      <c r="A25" s="65" t="s">
+        <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="78">
+        <v>6</v>
+      </c>
+      <c r="D25" s="47">
         <v>0.23</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="24">
         <v>28.18</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="24">
         <v>2.5</v>
       </c>
-      <c r="G25" s="76">
+      <c r="G25" s="45">
         <v>129</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2159,34 +2013,30 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="81">
-        <f>D13</f>
-        <v>4.38</v>
-      </c>
-      <c r="E26" s="24">
-        <f t="shared" ref="E26:G26" si="3">E13</f>
+        <v>38</v>
+      </c>
+      <c r="D26" s="50">
+        <v>8.27</v>
+      </c>
+      <c r="E26" s="19">
         <v>0</v>
       </c>
-      <c r="F26" s="24">
-        <f t="shared" si="3"/>
-        <v>44.2</v>
-      </c>
-      <c r="G26" s="82">
-        <f t="shared" si="3"/>
-        <v>229</v>
+      <c r="F26" s="19">
+        <v>42.89</v>
+      </c>
+      <c r="G26" s="51">
+        <v>254</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L26" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2194,36 +2044,24 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="6">
-        <f>SUM(D25:D26)</f>
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="E27" s="6">
-        <f t="shared" ref="E27:G27" si="4">SUM(E25:E26)</f>
-        <v>28.18</v>
-      </c>
-      <c r="F27" s="6">
-        <f t="shared" si="4"/>
-        <v>46.7</v>
-      </c>
-      <c r="G27" s="6">
-        <f t="shared" si="4"/>
-        <v>358</v>
-      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="1:20" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="63"/>
       <c r="N28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -2232,25 +2070,25 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>80</v>
+      <c r="A29" s="65" t="s">
+        <v>70</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="78">
+        <v>27</v>
+      </c>
+      <c r="D29" s="47">
         <v>0</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="24">
         <v>8.5</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="24">
         <v>6.6</v>
       </c>
-      <c r="G29" s="76">
+      <c r="G29" s="45">
         <v>63</v>
       </c>
       <c r="Q29" s="1"/>
@@ -2259,23 +2097,23 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="79">
+      <c r="D30" s="48">
         <v>2.6</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="17">
         <v>5.6</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="17">
         <v>21</v>
       </c>
-      <c r="G30" s="80">
+      <c r="G30" s="49">
         <v>130</v>
       </c>
       <c r="Q30" s="1"/>
@@ -2284,23 +2122,23 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
+      <c r="A31" s="65"/>
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="83">
+        <v>49</v>
+      </c>
+      <c r="D31" s="52">
         <v>2.35</v>
       </c>
-      <c r="E31" s="84">
+      <c r="E31" s="53">
         <v>2.15</v>
       </c>
-      <c r="F31" s="84">
+      <c r="F31" s="53">
         <v>1.5</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="12">
         <v>58</v>
       </c>
       <c r="Q31" s="1"/>
@@ -2309,47 +2147,21 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="6">
-        <f>SUM(D29:D31)</f>
-        <v>4.95</v>
-      </c>
-      <c r="E32" s="6">
-        <f t="shared" ref="E32:G32" si="5">SUM(E29:E31)</f>
-        <v>16.25</v>
-      </c>
-      <c r="F32" s="6">
-        <f t="shared" si="5"/>
-        <v>29.1</v>
-      </c>
-      <c r="G32" s="6">
-        <f t="shared" si="5"/>
-        <v>251</v>
-      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="12">
-        <f>SUM(D6,D10,D15,D18,D23,D27,D32)</f>
-        <v>33.770000000000003</v>
-      </c>
-      <c r="E33" s="12">
-        <f>SUM(E6,E10,E15,E18,E23,E27,E32)</f>
-        <v>175.41000000000003</v>
-      </c>
-      <c r="F33" s="12">
-        <f>SUM(F6,F10,F15,F18,F23,F27,F32)</f>
-        <v>172</v>
-      </c>
-      <c r="G33" s="12">
-        <f>SUM(G6,G10,G15,G18,G23,G27,G32)</f>
-        <v>1688</v>
-      </c>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -2380,11 +2192,11 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="89"/>
-      <c r="C38" s="90"/>
+      <c r="A38" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="78"/>
+      <c r="C38" s="79"/>
       <c r="N38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -2399,108 +2211,85 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>73</v>
+      <c r="A40" s="74" t="s">
+        <v>71</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="65">
+        <v>30</v>
+      </c>
+      <c r="D40" s="34">
         <v>2.64</v>
       </c>
-      <c r="E40" s="66">
+      <c r="E40" s="35">
         <v>21.6</v>
       </c>
-      <c r="F40" s="66">
+      <c r="F40" s="35">
         <v>7.8</v>
       </c>
-      <c r="G40" s="67">
+      <c r="G40" s="36">
         <v>142</v>
       </c>
-      <c r="H40" s="31"/>
-      <c r="I40" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="J40" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="K40" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="L40" s="32" t="s">
-        <v>56</v>
-      </c>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
+      <c r="A41" s="75"/>
       <c r="B41" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="68">
-        <v>4</v>
-      </c>
-      <c r="E41" s="62">
-        <v>1</v>
-      </c>
-      <c r="F41" s="62">
-        <v>3.3</v>
-      </c>
-      <c r="G41" s="69">
-        <v>27</v>
-      </c>
-      <c r="H41" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="I41" s="34">
-        <f>SUM(D6,D15,D18,D23,D27,D32,D43)</f>
-        <v>39.72</v>
-      </c>
-      <c r="J41" s="34">
-        <f>SUM(E6,E15,E18,E23,E27,E32,E43)</f>
-        <v>166.75</v>
-      </c>
-      <c r="K41" s="34">
-        <f>SUM(F6,F15,F18,F23,F27,F32,F43)</f>
-        <v>184.31</v>
-      </c>
-      <c r="L41" s="34">
-        <f>SUM(G6,G15,G18,G23,G27,G32,G43)</f>
-        <v>1741</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D41" s="37">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E41" s="32">
+        <v>0.13</v>
+      </c>
+      <c r="F41" s="32">
+        <v>0.65</v>
+      </c>
+      <c r="G41" s="38">
+        <v>8</v>
+      </c>
+      <c r="H41" s="64"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
+      <c r="A42" s="76"/>
       <c r="B42" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="70">
-        <v>0.54</v>
-      </c>
-      <c r="E42" s="71">
-        <v>0.08</v>
-      </c>
-      <c r="F42" s="71">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G42" s="72">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D42" s="39">
+        <v>1.08</v>
+      </c>
+      <c r="E42" s="40">
+        <v>0.17</v>
+      </c>
+      <c r="F42" s="40">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="G42" s="41">
+        <v>48</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -2508,22 +2297,10 @@
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="6">
-        <f>SUM(D40:D42)</f>
-        <v>7.1800000000000006</v>
-      </c>
-      <c r="E43" s="6">
-        <f>SUM(E40:E42)</f>
-        <v>22.68</v>
-      </c>
-      <c r="F43" s="6">
-        <f>SUM(F40:F42)</f>
-        <v>15.5</v>
-      </c>
-      <c r="G43" s="6">
-        <f>SUM(G40:G42)</f>
-        <v>193</v>
-      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
       <c r="N43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -2532,125 +2309,102 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="35"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>74</v>
+      <c r="A45" s="65" t="s">
+        <v>72</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="65">
+        <v>26</v>
+      </c>
+      <c r="D45" s="34">
         <v>0.01</v>
       </c>
-      <c r="E45" s="66">
+      <c r="E45" s="35">
         <v>25.78</v>
       </c>
-      <c r="F45" s="66">
+      <c r="F45" s="35">
         <v>0.06</v>
       </c>
-      <c r="G45" s="67">
+      <c r="G45" s="36">
         <v>104</v>
       </c>
-      <c r="H45" s="31"/>
-      <c r="I45" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="J45" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="K45" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="L45" s="32" t="s">
-        <v>56</v>
-      </c>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
+      <c r="A46" s="74"/>
       <c r="B46" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="68">
         <v>4</v>
       </c>
-      <c r="E46" s="62">
+      <c r="D46" s="37">
+        <v>4</v>
+      </c>
+      <c r="E46" s="32">
         <v>1</v>
       </c>
-      <c r="F46" s="62">
+      <c r="F46" s="32">
         <v>3.3</v>
       </c>
-      <c r="G46" s="69">
+      <c r="G46" s="38">
         <v>27</v>
       </c>
-      <c r="H46" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="I46" s="34">
-        <f>SUM(D6,D15,D18,D23,D27,D32,D48)</f>
-        <v>37.450000000000003</v>
-      </c>
-      <c r="J46" s="34">
-        <f>SUM(E6,E15,E18,E23,E27,E32,E48)</f>
-        <v>170.99</v>
-      </c>
-      <c r="K46" s="34">
-        <f>SUM(F6,F15,F18,F23,F27,F32,F48)</f>
-        <v>179.5</v>
-      </c>
-      <c r="L46" s="34">
-        <f>SUM(G6,G15,G18,G23,G27,G32,G48)</f>
-        <v>1719</v>
-      </c>
+      <c r="H46" s="64"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
+      <c r="A47" s="74"/>
       <c r="B47" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="70">
+        <v>32</v>
+      </c>
+      <c r="D47" s="39">
         <v>0.9</v>
       </c>
-      <c r="E47" s="71">
+      <c r="E47" s="40">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F47" s="71">
+      <c r="F47" s="40">
         <v>7.33</v>
       </c>
-      <c r="G47" s="72">
+      <c r="G47" s="41">
         <v>40</v>
       </c>
       <c r="Q47" s="1"/>
@@ -2659,22 +2413,10 @@
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="6">
-        <f>SUM(D45:D47)</f>
-        <v>4.91</v>
-      </c>
-      <c r="E48" s="6">
-        <f>SUM(E45:E47)</f>
-        <v>26.92</v>
-      </c>
-      <c r="F48" s="6">
-        <f>SUM(F45:F47)</f>
-        <v>10.69</v>
-      </c>
-      <c r="G48" s="6">
-        <f>SUM(G45:G47)</f>
-        <v>171</v>
-      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
       <c r="N48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -2683,125 +2425,102 @@
       <c r="T48" s="1"/>
     </row>
     <row r="49" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
     <row r="50" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>75</v>
+      <c r="A50" s="74" t="s">
+        <v>73</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="65">
+        <v>54</v>
+      </c>
+      <c r="D50" s="34">
         <v>0.33</v>
       </c>
-      <c r="E50" s="66">
+      <c r="E50" s="35">
         <v>22.84</v>
       </c>
-      <c r="F50" s="66">
+      <c r="F50" s="35">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G50" s="67">
+      <c r="G50" s="36">
         <v>89</v>
       </c>
-      <c r="H50" s="31"/>
-      <c r="I50" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="J50" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="K50" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="L50" s="32" t="s">
-        <v>56</v>
-      </c>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="61"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
+      <c r="A51" s="75"/>
       <c r="B51" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="68">
+        <v>4</v>
+      </c>
+      <c r="D51" s="37">
         <v>0.9</v>
       </c>
-      <c r="E51" s="62">
+      <c r="E51" s="32">
         <v>8.5</v>
       </c>
-      <c r="F51" s="62">
+      <c r="F51" s="32">
         <v>2.1</v>
       </c>
-      <c r="G51" s="69">
+      <c r="G51" s="38">
         <v>51</v>
       </c>
-      <c r="H51" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="I51" s="34">
-        <f>SUM(D6,D15,D18,D23,D27,D32,D53)</f>
-        <v>36.07</v>
-      </c>
-      <c r="J51" s="34">
-        <f t="shared" ref="J51:L51" si="6">SUM(E6,E15,E18,E23,E27,E32,E53)</f>
-        <v>176.57999999999998</v>
-      </c>
-      <c r="K51" s="34">
-        <f t="shared" si="6"/>
-        <v>172.97</v>
-      </c>
-      <c r="L51" s="34">
-        <f t="shared" si="6"/>
-        <v>1716</v>
-      </c>
+      <c r="H51" s="64"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
+      <c r="A52" s="76"/>
       <c r="B52" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="70">
+        <v>49</v>
+      </c>
+      <c r="D52" s="39">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E52" s="71">
+      <c r="E52" s="40">
         <v>1.17</v>
       </c>
-      <c r="F52" s="71">
+      <c r="F52" s="40">
         <v>0.97</v>
       </c>
-      <c r="G52" s="72">
+      <c r="G52" s="41">
         <v>28</v>
       </c>
       <c r="Q52" s="1"/>
@@ -2810,574 +2529,592 @@
       <c r="T52" s="1"/>
     </row>
     <row r="53" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="6">
-        <f>SUM(D50:D52)</f>
-        <v>3.53</v>
-      </c>
-      <c r="E53" s="6">
-        <f t="shared" ref="E53:G53" si="7">SUM(E50:E52)</f>
-        <v>32.51</v>
-      </c>
-      <c r="F53" s="6">
-        <f t="shared" si="7"/>
-        <v>4.16</v>
-      </c>
-      <c r="G53" s="6">
-        <f t="shared" si="7"/>
-        <v>168</v>
-      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="35"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>77</v>
+      <c r="A55" s="65" t="s">
+        <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="E55" s="35">
+        <v>36.64</v>
+      </c>
+      <c r="F55" s="35">
+        <v>3.25</v>
+      </c>
+      <c r="G55" s="36">
+        <v>167</v>
+      </c>
+      <c r="I55" s="61"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="61"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="65"/>
+      <c r="B56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="37">
+        <v>8</v>
+      </c>
+      <c r="E56" s="32">
+        <v>0</v>
+      </c>
+      <c r="F56" s="32">
+        <v>42.44</v>
+      </c>
+      <c r="G56" s="38">
+        <v>254</v>
+      </c>
+      <c r="H56" s="64"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+    </row>
+    <row r="57" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="65"/>
+      <c r="B57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="65">
-        <v>0.3</v>
-      </c>
-      <c r="E55" s="66">
-        <v>36.64</v>
-      </c>
-      <c r="F55" s="66">
-        <v>3.25</v>
-      </c>
-      <c r="G55" s="67">
-        <v>167</v>
-      </c>
-      <c r="H55" s="31"/>
-      <c r="I55" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="J55" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="K55" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="L55" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="68">
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="E56" s="62">
-        <v>0</v>
-      </c>
-      <c r="F56" s="62">
-        <v>24.06</v>
-      </c>
-      <c r="G56" s="69">
-        <v>175</v>
-      </c>
-      <c r="H56" s="33" t="s">
+      <c r="D57" s="39">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E57" s="40">
+        <v>10.49</v>
+      </c>
+      <c r="F57" s="40">
+        <v>1.04</v>
+      </c>
+      <c r="G57" s="41">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+    </row>
+    <row r="60" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="I56" s="34">
-        <f>SUM(D6,D53,D18,D23,D27,D32,D58)</f>
-        <v>39.51</v>
-      </c>
-      <c r="J56" s="34">
-        <f>SUM(E6,E53,E18,E23,E27,E32,E58)</f>
-        <v>178.48</v>
-      </c>
-      <c r="K56" s="34">
-        <f>SUM(F6,F53,F18,F23,F27,F32,F58)</f>
-        <v>149.04999999999998</v>
-      </c>
-      <c r="L56" s="34">
-        <f>SUM(G6,G53,G18,G23,G27,G32,G58)</f>
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="70">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E57" s="71">
-        <v>10.49</v>
-      </c>
-      <c r="F57" s="71">
-        <v>1.04</v>
-      </c>
-      <c r="G57" s="72">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D58" s="6">
-        <f>SUM(D55:D57)</f>
-        <v>8.4</v>
-      </c>
-      <c r="E58" s="6">
-        <f>SUM(E55:E57)</f>
-        <v>47.13</v>
-      </c>
-      <c r="F58" s="6">
-        <f>SUM(F55:F57)</f>
-        <v>28.349999999999998</v>
-      </c>
-      <c r="G58" s="6">
-        <f>SUM(G55:G57)</f>
-        <v>389</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-    </row>
-    <row r="60" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B60" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="42">
-        <v>3</v>
-      </c>
-      <c r="H60" s="31"/>
-      <c r="I60" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="J60" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="K60" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="L60" s="32" t="s">
-        <v>56</v>
-      </c>
+      <c r="C60" s="71">
+        <v>2</v>
+      </c>
+      <c r="I60" s="61"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="61"/>
+      <c r="L60" s="61"/>
     </row>
     <row r="61" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="85">
-        <v>13.95</v>
-      </c>
-      <c r="E61" s="86">
-        <v>1.48</v>
-      </c>
-      <c r="F61" s="86">
-        <v>16.54</v>
-      </c>
-      <c r="G61" s="87">
-        <v>203</v>
-      </c>
-      <c r="H61" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="I61" s="34">
-        <f>SUM(D6,D10,D15,D18,D27,D32,D62)</f>
-        <v>41.15</v>
-      </c>
-      <c r="J61" s="34">
-        <f t="shared" ref="J61:L61" si="8">SUM(E6,E10,E15,E18,E27,E32,E62)</f>
-        <v>157.38999999999999</v>
-      </c>
-      <c r="K61" s="34">
-        <f t="shared" si="8"/>
-        <v>163.31</v>
-      </c>
-      <c r="L61" s="34">
-        <f t="shared" si="8"/>
-        <v>1675</v>
-      </c>
+      <c r="A61" s="65"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="54">
+        <v>11.2</v>
+      </c>
+      <c r="E61" s="55">
+        <v>1.19</v>
+      </c>
+      <c r="F61" s="55">
+        <v>13.28</v>
+      </c>
+      <c r="G61" s="56">
+        <v>163</v>
+      </c>
+      <c r="H61" s="64"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
     </row>
     <row r="62" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="6">
-        <f>SUM(D61)</f>
-        <v>13.95</v>
-      </c>
-      <c r="E62" s="6">
-        <f t="shared" ref="E62:G62" si="9">SUM(E61)</f>
-        <v>1.48</v>
-      </c>
-      <c r="F62" s="6">
-        <f t="shared" si="9"/>
-        <v>16.54</v>
-      </c>
-      <c r="G62" s="6">
-        <f t="shared" si="9"/>
-        <v>203</v>
-      </c>
+      <c r="A62" s="65"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
     </row>
     <row r="63" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="49" t="s">
+      <c r="A64" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="34">
+        <v>2.64</v>
+      </c>
+      <c r="E64" s="35">
+        <v>21.6</v>
+      </c>
+      <c r="F64" s="35">
+        <v>7.8</v>
+      </c>
+      <c r="G64" s="36">
+        <v>142</v>
+      </c>
+      <c r="I64" s="61"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="61"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="80"/>
+      <c r="B65" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="E65" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="F65" s="32">
+        <v>7.2</v>
+      </c>
+      <c r="G65" s="38">
+        <v>34</v>
+      </c>
+      <c r="H65" s="64"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="80"/>
+      <c r="B66" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="37">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E66" s="32">
+        <v>0.27</v>
+      </c>
+      <c r="F66" s="32">
+        <v>1.3</v>
+      </c>
+      <c r="G66" s="38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="J67" s="33"/>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="25"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="7">
+        <v>2</v>
+      </c>
+      <c r="D69" s="34">
+        <v>3.8</v>
+      </c>
+      <c r="E69" s="35">
+        <v>42</v>
+      </c>
+      <c r="F69" s="35">
+        <v>11</v>
+      </c>
+      <c r="G69" s="36">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="65"/>
+      <c r="B70" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="7">
+        <v>1</v>
+      </c>
+      <c r="D70" s="37">
+        <v>5.6</v>
+      </c>
+      <c r="E70" s="32">
+        <v>0.59</v>
+      </c>
+      <c r="F70" s="32">
+        <v>6.64</v>
+      </c>
+      <c r="G70" s="38">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="65"/>
+      <c r="B71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="39">
+        <v>3.2</v>
+      </c>
+      <c r="E71" s="40">
+        <v>0</v>
+      </c>
+      <c r="F71" s="40">
+        <v>33</v>
+      </c>
+      <c r="G71" s="41">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="27"/>
+      <c r="C72" s="28"/>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" s="34">
+        <v>1.7</v>
+      </c>
+      <c r="E75" s="35">
+        <v>7.65</v>
+      </c>
+      <c r="F75" s="35">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G75" s="36">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="65"/>
+      <c r="B76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="37">
+        <v>2.6</v>
+      </c>
+      <c r="E76" s="32">
+        <v>5.6</v>
+      </c>
+      <c r="F76" s="32">
+        <v>21</v>
+      </c>
+      <c r="G76" s="38">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="65"/>
+      <c r="B77" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="39">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E77" s="40">
+        <v>5.79</v>
+      </c>
+      <c r="F77" s="40">
+        <v>0.22</v>
+      </c>
+      <c r="G77" s="41">
+        <v>23</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="34">
+        <v>0</v>
+      </c>
+      <c r="E80" s="35">
+        <v>8.5</v>
+      </c>
+      <c r="F80" s="35">
+        <v>6.6</v>
+      </c>
+      <c r="G80" s="36">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="75"/>
+      <c r="B81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" s="37">
+        <v>2.6</v>
+      </c>
+      <c r="E81" s="32">
+        <v>5.6</v>
+      </c>
+      <c r="F81" s="32">
+        <v>21</v>
+      </c>
+      <c r="G81" s="38">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="76"/>
+      <c r="B82" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="39">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E82" s="40">
+        <v>2.34</v>
+      </c>
+      <c r="F82" s="40">
+        <v>1.94</v>
+      </c>
+      <c r="G82" s="41">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" s="54">
-        <v>2.64</v>
-      </c>
-      <c r="E64" s="55">
-        <v>21.6</v>
-      </c>
-      <c r="F64" s="55">
-        <v>7.8</v>
-      </c>
-      <c r="G64" s="56">
-        <v>142</v>
-      </c>
-      <c r="H64" s="31"/>
-      <c r="I64" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="J64" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="K64" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="L64" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" s="57">
-        <v>0.4</v>
-      </c>
-      <c r="E65" s="52">
-        <v>0.6</v>
-      </c>
-      <c r="F65" s="52">
-        <v>7.2</v>
-      </c>
-      <c r="G65" s="58">
-        <v>34</v>
-      </c>
-      <c r="H65" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="I65" s="34">
-        <f>SUM(D6,D10,D15,D18,D27,D32,D68)</f>
-        <v>39.92</v>
-      </c>
-      <c r="J65" s="34">
-        <f>SUM(E6,E10,E15,E18,E27,E32,E68)</f>
-        <v>180.2</v>
-      </c>
-      <c r="K65" s="34">
-        <f>SUM(F6,F10,F15,F18,F27,F32,F68)</f>
-        <v>172.43</v>
-      </c>
-      <c r="L65" s="34">
-        <f>SUM(G6,G10,G15,G18,G27,G32,G68)</f>
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="57">
+      <c r="B84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="7">
         <v>4</v>
       </c>
-      <c r="E66" s="52">
-        <v>1</v>
-      </c>
-      <c r="F66" s="52">
-        <v>3.3</v>
-      </c>
-      <c r="G66" s="58">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="48"/>
-      <c r="B67" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" s="59">
-        <v>5.68</v>
-      </c>
-      <c r="E67" s="60">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="F67" s="60">
-        <v>7.36</v>
-      </c>
-      <c r="G67" s="61">
+      <c r="D84" s="34">
+        <v>0.52</v>
+      </c>
+      <c r="E84" s="35">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="F84" s="35">
+        <v>1.73</v>
+      </c>
+      <c r="G84" s="36">
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D68" s="6">
-        <f>SUM(D64:D67)</f>
-        <v>12.719999999999999</v>
-      </c>
-      <c r="E68" s="6">
-        <f>SUM(E64:E67)</f>
-        <v>24.290000000000003</v>
-      </c>
-      <c r="F68" s="6">
-        <f>SUM(F64:F67)</f>
-        <v>25.66</v>
-      </c>
-      <c r="G68" s="6">
-        <f>SUM(G64:G67)</f>
-        <v>289</v>
-      </c>
-      <c r="J68" s="53"/>
-    </row>
-    <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="35"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
-    </row>
-    <row r="70" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="65"/>
+      <c r="B85" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C70" s="7">
-        <v>2</v>
-      </c>
-      <c r="D70" s="65"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="67"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" s="7">
-        <v>1</v>
-      </c>
-      <c r="D71" s="68"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="69"/>
-    </row>
-    <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="8"/>
-      <c r="B72" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D72" s="70"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="72"/>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="48"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="40"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="40"/>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
+      <c r="D85" s="39">
+        <v>0</v>
+      </c>
+      <c r="E85" s="40">
+        <v>4</v>
+      </c>
+      <c r="F85" s="40">
+        <v>0</v>
+      </c>
+      <c r="G85" s="41">
+        <v>20</v>
+      </c>
+      <c r="H85" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D76" s="65"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="67"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D77" s="68"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="69"/>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="8"/>
-      <c r="B78" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D78" s="70"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="72"/>
-      <c r="H78" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="81" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" s="65"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="67"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
-      <c r="B82" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D82" s="68"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="69"/>
-    </row>
-    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="11"/>
-      <c r="B83" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D83" s="70"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="72"/>
-    </row>
-    <row r="84" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="86" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="47">
+        <v>0.23</v>
+      </c>
+      <c r="E87" s="24">
+        <v>28.18</v>
+      </c>
+      <c r="F87" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="G87" s="45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="65"/>
+      <c r="B88" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88" s="50">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="E88" s="19">
+        <v>0</v>
+      </c>
+      <c r="F88" s="19">
+        <v>49.49</v>
+      </c>
+      <c r="G88" s="51">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
+    <mergeCell ref="A87:A88"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="A60:A62"/>
     <mergeCell ref="B60:B62"/>
     <mergeCell ref="C60:C62"/>
-    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A80:A82"/>
     <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A75:A77"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3386,25 +3123,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDD4CC3-E2A2-4CDE-A046-DB126D9F9532}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6">
         <v>1760</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <f>A1*(20/100)</f>
@@ -3415,9 +3155,9 @@
         <v>39.111111111111114</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <f>A1*(40/100)</f>
@@ -3428,9 +3168,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <f>A1*(40/100)</f>
@@ -3440,6 +3180,27 @@
         <f>B4/4</f>
         <v>176</v>
       </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K7" s="28"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K8" s="28"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K9" s="28"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Dieta.xlsx
+++ b/Dieta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79f1909e597772fb/Dieta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79f1909e597772fb/Dieta/dist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="860" documentId="8_{90986033-560C-486B-8143-87D885832CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9725FA2-105E-4A98-8364-C1C496FF40E2}"/>
+  <xr:revisionPtr revIDLastSave="899" documentId="8_{90986033-560C-486B-8143-87D885832CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{962B67E4-F439-4D31-8858-FAFE3A39AC10}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EEAF446F-95DF-4CB5-9D66-62E4FEDCD420}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>Pão Integral</t>
   </si>
@@ -304,13 +304,22 @@
   </si>
   <si>
     <t>Janta (Domingo)</t>
+  </si>
+  <si>
+    <t>20g Frango desfiado</t>
+  </si>
+  <si>
+    <t>Lanche 2 (4)</t>
+  </si>
+  <si>
+    <t>Rap10 integral</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,14 +373,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -943,7 +944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1118,9 +1119,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1168,6 +1166,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1503,11 +1507,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4246DEA4-48F2-43EF-A60C-C727AC3FFA78}">
-  <dimension ref="A1:T89"/>
+  <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G64" sqref="G64:G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,15 +1527,16 @@
     <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.140625" customWidth="1"/>
     <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
       <c r="D1" s="21" t="s">
         <v>50</v>
       </c>
@@ -1546,7 +1551,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1570,7 +1575,7 @@
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1591,7 +1596,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1612,7 +1617,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1649,7 +1654,7 @@
       <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="64" t="s">
         <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1670,7 +1675,7 @@
       <c r="G8" s="58">
         <v>89</v>
       </c>
-      <c r="N8" s="67"/>
+      <c r="N8" s="66"/>
       <c r="P8" s="28"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1678,7 +1683,7 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1697,7 +1702,7 @@
       <c r="G9" s="16">
         <v>51</v>
       </c>
-      <c r="N9" s="67"/>
+      <c r="N9" s="66"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1733,7 +1738,7 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="64" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1763,7 +1768,7 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="2" t="s">
         <v>57</v>
       </c>
@@ -1791,7 +1796,7 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1890,7 +1895,7 @@
       <c r="H19" s="63"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="64" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1916,7 +1921,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
@@ -1924,23 +1929,23 @@
         <v>18</v>
       </c>
       <c r="D21" s="48">
-        <v>2.5299999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="E21" s="17">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="F21" s="17">
-        <v>20.52</v>
+        <v>21.71</v>
       </c>
       <c r="G21" s="49">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
@@ -1983,7 +1988,7 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="64" t="s">
         <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2013,24 +2018,24 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="65"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D26" s="50">
-        <v>8.27</v>
+        <v>7</v>
       </c>
       <c r="E26" s="19">
         <v>0</v>
       </c>
       <c r="F26" s="19">
-        <v>42.89</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="G26" s="51">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>28</v>
@@ -2070,7 +2075,7 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="64" t="s">
         <v>70</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2097,7 +2102,7 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="2" t="s">
         <v>23</v>
       </c>
@@ -2122,7 +2127,7 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="65"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="2" t="s">
         <v>24</v>
       </c>
@@ -2192,11 +2197,11 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="78"/>
-      <c r="C38" s="79"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="78"/>
       <c r="N38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -2211,7 +2216,7 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="74" t="s">
+      <c r="A40" s="73" t="s">
         <v>71</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2242,7 +2247,7 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="75"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="2" t="s">
         <v>2</v>
       </c>
@@ -2261,7 +2266,7 @@
       <c r="G41" s="38">
         <v>8</v>
       </c>
-      <c r="H41" s="64"/>
+      <c r="H41" s="80"/>
       <c r="I41" s="28"/>
       <c r="J41" s="28"/>
       <c r="K41" s="28"/>
@@ -2272,7 +2277,7 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="76"/>
+      <c r="A42" s="75"/>
       <c r="B42" s="2" t="s">
         <v>17</v>
       </c>
@@ -2280,16 +2285,16 @@
         <v>26</v>
       </c>
       <c r="D42" s="39">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="E42" s="40">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F42" s="40">
-        <v>8.7899999999999991</v>
+        <v>9.31</v>
       </c>
       <c r="G42" s="41">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -2327,7 +2332,7 @@
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="64" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2358,7 +2363,7 @@
       <c r="T45" s="1"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="74"/>
+      <c r="A46" s="73"/>
       <c r="B46" s="2" t="s">
         <v>2</v>
       </c>
@@ -2377,7 +2382,7 @@
       <c r="G46" s="38">
         <v>27</v>
       </c>
-      <c r="H46" s="64"/>
+      <c r="H46" s="80"/>
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
       <c r="K46" s="28"/>
@@ -2388,7 +2393,7 @@
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="74"/>
+      <c r="A47" s="73"/>
       <c r="B47" s="2" t="s">
         <v>17</v>
       </c>
@@ -2396,16 +2401,16 @@
         <v>32</v>
       </c>
       <c r="D47" s="39">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="E47" s="40">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F47" s="40">
-        <v>7.33</v>
+        <v>7.76</v>
       </c>
       <c r="G47" s="41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -2443,7 +2448,7 @@
       <c r="T49" s="1"/>
     </row>
     <row r="50" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="74" t="s">
+      <c r="A50" s="73" t="s">
         <v>73</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -2474,7 +2479,7 @@
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="75"/>
+      <c r="A51" s="74"/>
       <c r="B51" s="5" t="s">
         <v>8</v>
       </c>
@@ -2493,7 +2498,7 @@
       <c r="G51" s="38">
         <v>51</v>
       </c>
-      <c r="H51" s="64"/>
+      <c r="H51" s="80"/>
       <c r="I51" s="28"/>
       <c r="J51" s="28"/>
       <c r="K51" s="28"/>
@@ -2504,7 +2509,7 @@
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="76"/>
+      <c r="A52" s="75"/>
       <c r="B52" s="5" t="s">
         <v>48</v>
       </c>
@@ -2557,7 +2562,7 @@
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="65" t="s">
+      <c r="A55" s="64" t="s">
         <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2584,7 +2589,7 @@
       <c r="L55" s="61"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
+      <c r="A56" s="64"/>
       <c r="B56" s="2" t="s">
         <v>35</v>
       </c>
@@ -2603,14 +2608,14 @@
       <c r="G56" s="38">
         <v>254</v>
       </c>
-      <c r="H56" s="64"/>
+      <c r="H56" s="80"/>
       <c r="I56" s="28"/>
       <c r="J56" s="28"/>
       <c r="K56" s="28"/>
       <c r="L56" s="28"/>
     </row>
     <row r="57" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="65"/>
+      <c r="A57" s="64"/>
       <c r="B57" s="2" t="s">
         <v>36</v>
       </c>
@@ -2651,13 +2656,13 @@
       <c r="L59" s="26"/>
     </row>
     <row r="60" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="65" t="s">
+      <c r="A60" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="68" t="s">
+      <c r="B60" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="71">
+      <c r="C60" s="70">
         <v>2</v>
       </c>
       <c r="I60" s="61"/>
@@ -2666,9 +2671,9 @@
       <c r="L60" s="61"/>
     </row>
     <row r="61" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="65"/>
-      <c r="B61" s="69"/>
-      <c r="C61" s="72"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="71"/>
       <c r="D61" s="54">
         <v>11.2</v>
       </c>
@@ -2681,16 +2686,16 @@
       <c r="G61" s="56">
         <v>163</v>
       </c>
-      <c r="H61" s="64"/>
+      <c r="H61" s="80"/>
       <c r="I61" s="28"/>
       <c r="J61" s="28"/>
       <c r="K61" s="28"/>
       <c r="L61" s="28"/>
     </row>
     <row r="62" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="65"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="73"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="72"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -2698,7 +2703,7 @@
     </row>
     <row r="63" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="80" t="s">
+      <c r="A64" s="79" t="s">
         <v>76</v>
       </c>
       <c r="B64" s="30" t="s">
@@ -2725,7 +2730,7 @@
       <c r="L64" s="61"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="80"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="30" t="s">
         <v>62</v>
       </c>
@@ -2744,14 +2749,16 @@
       <c r="G65" s="38">
         <v>34</v>
       </c>
-      <c r="H65" s="64"/>
+      <c r="H65" s="81" t="s">
+        <v>89</v>
+      </c>
       <c r="I65" s="28"/>
       <c r="J65" s="28"/>
       <c r="K65" s="28"/>
       <c r="L65" s="28"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="80"/>
+      <c r="A66" s="79"/>
       <c r="B66" s="30" t="s">
         <v>2</v>
       </c>
@@ -2793,7 +2800,7 @@
       <c r="L68" s="26"/>
     </row>
     <row r="69" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="65" t="s">
+      <c r="A69" s="64" t="s">
         <v>79</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -2816,7 +2823,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="65"/>
+      <c r="A70" s="64"/>
       <c r="B70" s="2" t="s">
         <v>40</v>
       </c>
@@ -2837,7 +2844,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="65"/>
+      <c r="A71" s="64"/>
       <c r="B71" s="2" t="s">
         <v>41</v>
       </c>
@@ -2863,7 +2870,7 @@
     </row>
     <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="75" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="65" t="s">
+      <c r="A75" s="64" t="s">
         <v>77</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -2886,7 +2893,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="65"/>
+      <c r="A76" s="64"/>
       <c r="B76" s="2" t="s">
         <v>23</v>
       </c>
@@ -2907,7 +2914,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="65"/>
+      <c r="A77" s="64"/>
       <c r="B77" s="2" t="s">
         <v>45</v>
       </c>
@@ -2933,7 +2940,7 @@
     <row r="78" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="74" t="s">
+      <c r="A80" s="73" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -2956,7 +2963,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="75"/>
+      <c r="A81" s="74"/>
       <c r="B81" s="2" t="s">
         <v>23</v>
       </c>
@@ -2977,7 +2984,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="76"/>
+      <c r="A82" s="75"/>
       <c r="B82" s="2" t="s">
         <v>48</v>
       </c>
@@ -2999,7 +3006,7 @@
     </row>
     <row r="83" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="84" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="64" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -3022,7 +3029,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="65"/>
+      <c r="A85" s="64"/>
       <c r="B85" s="2" t="s">
         <v>82</v>
       </c>
@@ -3047,7 +3054,7 @@
     </row>
     <row r="86" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="87" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="65" t="s">
+      <c r="A87" s="64" t="s">
         <v>88</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -3070,7 +3077,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="65"/>
+      <c r="A88" s="64"/>
       <c r="B88" s="2" t="s">
         <v>57</v>
       </c>
@@ -3090,9 +3097,54 @@
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="31">
+        <v>1</v>
+      </c>
+      <c r="D90" s="34">
+        <v>1.9</v>
+      </c>
+      <c r="E90" s="35">
+        <v>21</v>
+      </c>
+      <c r="F90" s="35">
+        <v>5.5</v>
+      </c>
+      <c r="G90" s="36">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="79"/>
+      <c r="B91" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="37">
+        <v>1.78</v>
+      </c>
+      <c r="E91" s="32">
+        <v>0</v>
+      </c>
+      <c r="F91" s="32">
+        <v>15.51</v>
+      </c>
+      <c r="G91" s="38">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="A90:A91"/>
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="A60:A62"/>

--- a/Dieta.xlsx
+++ b/Dieta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79f1909e597772fb/Dieta/dist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79f1909e597772fb/Dieta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="899" documentId="8_{90986033-560C-486B-8143-87D885832CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{962B67E4-F439-4D31-8858-FAFE3A39AC10}"/>
+  <xr:revisionPtr revIDLastSave="959" documentId="8_{90986033-560C-486B-8143-87D885832CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DF1E34E-7DD2-4794-B0CA-E397F0F302B9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EEAF446F-95DF-4CB5-9D66-62E4FEDCD420}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
   <si>
     <t>Pão Integral</t>
   </si>
@@ -87,24 +87,12 @@
     <t>Batata doce</t>
   </si>
   <si>
-    <t>90g</t>
-  </si>
-  <si>
     <t>Frango desfiado</t>
   </si>
   <si>
     <t>70g</t>
   </si>
   <si>
-    <t xml:space="preserve">Frango 125g | Tilápia 135g | Lombo Suíno 100g </t>
-  </si>
-  <si>
-    <t>Massa 85g</t>
-  </si>
-  <si>
-    <t>Patinho 60g | Tilápia 80g | Lombo Suíno 60g</t>
-  </si>
-  <si>
     <t>Iogurte natural</t>
   </si>
   <si>
@@ -123,12 +111,6 @@
     <t>170g</t>
   </si>
   <si>
-    <t>Patinho 125 g | Tilápia 165 g | Lombo Suíno 130 g</t>
-  </si>
-  <si>
-    <t>Massa 80g</t>
-  </si>
-  <si>
     <t>2 fatias</t>
   </si>
   <si>
@@ -177,9 +159,6 @@
     <t>Mamão</t>
   </si>
   <si>
-    <t>Morango 60g | Melão 60g | Uva 35g</t>
-  </si>
-  <si>
     <t>DIETA 1.760kcal</t>
   </si>
   <si>
@@ -213,9 +192,6 @@
     <t>Patinho</t>
   </si>
   <si>
-    <t>Arroz 85g | Arroz 65g | Aipim 85g</t>
-  </si>
-  <si>
     <t>Ovo Cozido</t>
   </si>
   <si>
@@ -231,9 +207,6 @@
     <t>2 (40g)</t>
   </si>
   <si>
-    <t>AJUSTAR</t>
-  </si>
-  <si>
     <t>Café da manhã (1)</t>
   </si>
   <si>
@@ -313,6 +286,27 @@
   </si>
   <si>
     <t>Rap10 integral</t>
+  </si>
+  <si>
+    <t>155g Frango | 200g Tilápia | 120g Lombo Suíno</t>
+  </si>
+  <si>
+    <t>85g Massa</t>
+  </si>
+  <si>
+    <t>90g Massa</t>
+  </si>
+  <si>
+    <t>75g</t>
+  </si>
+  <si>
+    <t>65g Arroz | 50g Aipim</t>
+  </si>
+  <si>
+    <t>60g Patinho</t>
+  </si>
+  <si>
+    <t>60g Morango | 60g Melão | 35g Uva</t>
   </si>
 </sst>
 </file>
@@ -394,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -940,11 +934,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1095,15 +1173,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1119,59 +1188,77 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1507,11 +1594,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4246DEA4-48F2-43EF-A60C-C727AC3FFA78}">
-  <dimension ref="A1:T91"/>
+  <dimension ref="A1:T106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64:G66"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102:L102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,33 +1619,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
+      <c r="A1" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
       <c r="D1" s="21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D2" s="22">
         <v>1.32</v>
@@ -1572,7 +1659,7 @@
       <c r="G2" s="22">
         <v>71</v>
       </c>
-      <c r="H2" s="62"/>
+      <c r="H2" s="59"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="64"/>
@@ -1601,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D4" s="11">
         <v>0.56999999999999995</v>
@@ -1622,7 +1709,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D5" s="10">
         <v>1.53</v>
@@ -1647,15 +1734,15 @@
       <c r="A7" s="25"/>
       <c r="B7" s="26"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="63"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -1663,7 +1750,7 @@
       <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="54">
         <v>0.33</v>
       </c>
       <c r="E8" s="18">
@@ -1672,10 +1759,10 @@
       <c r="F8" s="18">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="55">
         <v>89</v>
       </c>
-      <c r="N8" s="66"/>
+      <c r="N8" s="65"/>
       <c r="P8" s="28"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1702,7 +1789,7 @@
       <c r="G9" s="16">
         <v>51</v>
       </c>
-      <c r="N9" s="66"/>
+      <c r="N9" s="65"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1729,7 +1816,7 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="63"/>
+      <c r="H11" s="60"/>
       <c r="N11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1739,7 +1826,7 @@
     </row>
     <row r="12" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -1760,7 +1847,7 @@
         <v>141</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1770,10 +1857,10 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="64"/>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D13" s="37">
         <v>8.27</v>
@@ -1788,7 +1875,7 @@
         <v>254</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1840,7 +1927,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="63"/>
+      <c r="H16" s="60"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -1869,7 +1956,7 @@
         <v>72</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="N17" s="1"/>
       <c r="P17" s="1"/>
@@ -1892,41 +1979,41 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="63"/>
+      <c r="H19" s="60"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="D20" s="47">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="E20" s="24">
-        <v>18.11</v>
+        <v>19.41</v>
       </c>
       <c r="F20" s="24">
-        <v>1.41</v>
+        <v>1.86</v>
       </c>
       <c r="G20" s="45">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="64"/>
       <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="D21" s="48">
         <v>2.5</v>
@@ -1941,7 +2028,7 @@
         <v>116</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1950,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D22" s="50">
         <v>0.56999999999999995</v>
@@ -1979,7 +2066,7 @@
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="63"/>
+      <c r="H24" s="60"/>
       <c r="N24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -1989,7 +2076,7 @@
     </row>
     <row r="25" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="64" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
@@ -2010,7 +2097,7 @@
         <v>129</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2020,7 +2107,7 @@
     <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="64"/>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>10</v>
@@ -2038,10 +2125,7 @@
         <v>215</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2066,7 +2150,7 @@
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="63"/>
+      <c r="H28" s="60"/>
       <c r="N28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -2076,13 +2160,13 @@
     </row>
     <row r="29" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="64" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D29" s="47">
         <v>0</v>
@@ -2104,10 +2188,10 @@
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="64"/>
       <c r="B30" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D30" s="48">
         <v>2.6</v>
@@ -2129,10 +2213,10 @@
     <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="64"/>
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D31" s="52">
         <v>2.35</v>
@@ -2162,11 +2246,11 @@
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -2197,11 +2281,11 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="78"/>
+      <c r="A38" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="76"/>
+      <c r="C38" s="77"/>
       <c r="N38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -2216,57 +2300,57 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="73" t="s">
-        <v>71</v>
+      <c r="A40" s="72" t="s">
+        <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="34">
+        <v>24</v>
+      </c>
+      <c r="D40" s="47">
         <v>2.64</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="24">
         <v>21.6</v>
       </c>
-      <c r="F40" s="35">
+      <c r="F40" s="24">
         <v>7.8</v>
       </c>
-      <c r="G40" s="36">
+      <c r="G40" s="45">
         <v>142</v>
       </c>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="61"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="74"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="37">
+        <v>42</v>
+      </c>
+      <c r="D41" s="48">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="17">
         <v>0.13</v>
       </c>
-      <c r="F41" s="32">
+      <c r="F41" s="17">
         <v>0.65</v>
       </c>
-      <c r="G41" s="38">
+      <c r="G41" s="49">
         <v>8</v>
       </c>
-      <c r="H41" s="80"/>
+      <c r="H41" s="61"/>
       <c r="I41" s="28"/>
       <c r="J41" s="28"/>
       <c r="K41" s="28"/>
@@ -2277,23 +2361,23 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="75"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="39">
+        <v>22</v>
+      </c>
+      <c r="D42" s="50">
         <v>1.07</v>
       </c>
-      <c r="E42" s="40">
+      <c r="E42" s="19">
         <v>0</v>
       </c>
-      <c r="F42" s="40">
+      <c r="F42" s="19">
         <v>9.31</v>
       </c>
-      <c r="G42" s="41">
+      <c r="G42" s="51">
         <v>50</v>
       </c>
       <c r="Q42" s="1"/>
@@ -2313,7 +2397,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
@@ -2321,7 +2405,7 @@
       <c r="E44" s="25"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="63"/>
+      <c r="H44" s="60"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="26"/>
@@ -2331,461 +2415,338 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="2" t="s">
+    <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="E46" s="24">
+        <v>25.78</v>
+      </c>
+      <c r="F46" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G46" s="45">
+        <v>104</v>
+      </c>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="72"/>
+      <c r="B47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="48">
+        <v>4</v>
+      </c>
+      <c r="E47" s="17">
+        <v>1</v>
+      </c>
+      <c r="F47" s="17">
+        <v>3.3</v>
+      </c>
+      <c r="G47" s="49">
+        <v>27</v>
+      </c>
+      <c r="H47" s="61"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+    </row>
+    <row r="48" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="72"/>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="50">
+        <v>0.89</v>
+      </c>
+      <c r="E48" s="19">
+        <v>0</v>
+      </c>
+      <c r="F48" s="19">
+        <v>7.76</v>
+      </c>
+      <c r="G48" s="51">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="47">
+        <v>0.33</v>
+      </c>
+      <c r="E52" s="24">
+        <v>22.84</v>
+      </c>
+      <c r="F52" s="24">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G52" s="45">
+        <v>89</v>
+      </c>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="58"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="73"/>
+      <c r="B53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="48">
+        <v>0.9</v>
+      </c>
+      <c r="E53" s="17">
+        <v>8.5</v>
+      </c>
+      <c r="F53" s="17">
+        <v>2.1</v>
+      </c>
+      <c r="G53" s="49">
+        <v>51</v>
+      </c>
+      <c r="H53" s="61"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="74"/>
+      <c r="B54" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="50">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E54" s="19">
+        <v>1.17</v>
+      </c>
+      <c r="F54" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="G54" s="51">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="E58" s="24">
+        <v>36.64</v>
+      </c>
+      <c r="F58" s="24">
+        <v>3.25</v>
+      </c>
+      <c r="G58" s="45">
+        <v>167</v>
+      </c>
+      <c r="I58" s="58"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="58"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="64"/>
+      <c r="B59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="48">
+        <v>8</v>
+      </c>
+      <c r="E59" s="17">
+        <v>0</v>
+      </c>
+      <c r="F59" s="17">
+        <v>42.44</v>
+      </c>
+      <c r="G59" s="49">
+        <v>254</v>
+      </c>
+      <c r="H59" s="61"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="64"/>
+      <c r="B60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="34">
-        <v>0.01</v>
-      </c>
-      <c r="E45" s="35">
-        <v>25.78</v>
-      </c>
-      <c r="F45" s="35">
-        <v>0.06</v>
-      </c>
-      <c r="G45" s="36">
-        <v>104</v>
-      </c>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="61"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="73"/>
-      <c r="B46" s="2" t="s">
+      <c r="D60" s="50">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E60" s="19">
+        <v>10.49</v>
+      </c>
+      <c r="F60" s="19">
+        <v>1.04</v>
+      </c>
+      <c r="G60" s="51">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="69">
         <v>2</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="37">
-        <v>4</v>
-      </c>
-      <c r="E46" s="32">
-        <v>1</v>
-      </c>
-      <c r="F46" s="32">
-        <v>3.3</v>
-      </c>
-      <c r="G46" s="38">
-        <v>27</v>
-      </c>
-      <c r="H46" s="80"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-    </row>
-    <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="73"/>
-      <c r="B47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="39">
-        <v>0.89</v>
-      </c>
-      <c r="E47" s="40">
-        <v>0</v>
-      </c>
-      <c r="F47" s="40">
-        <v>7.76</v>
-      </c>
-      <c r="G47" s="41">
-        <v>41</v>
-      </c>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-    </row>
-    <row r="48" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="N48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-    </row>
-    <row r="49" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-    </row>
-    <row r="50" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="34">
-        <v>0.33</v>
-      </c>
-      <c r="E50" s="35">
-        <v>22.84</v>
-      </c>
-      <c r="F50" s="35">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="G50" s="36">
-        <v>89</v>
-      </c>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="61"/>
-      <c r="L50" s="61"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="74"/>
-      <c r="B51" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="37">
-        <v>0.9</v>
-      </c>
-      <c r="E51" s="32">
-        <v>8.5</v>
-      </c>
-      <c r="F51" s="32">
-        <v>2.1</v>
-      </c>
-      <c r="G51" s="38">
-        <v>51</v>
-      </c>
-      <c r="H51" s="80"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-    </row>
-    <row r="52" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="75"/>
-      <c r="B52" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="39">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E52" s="40">
-        <v>1.17</v>
-      </c>
-      <c r="F52" s="40">
-        <v>0.97</v>
-      </c>
-      <c r="G52" s="41">
-        <v>28</v>
-      </c>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-    </row>
-    <row r="53" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-    </row>
-    <row r="54" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-    </row>
-    <row r="55" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="34">
-        <v>0.3</v>
-      </c>
-      <c r="E55" s="35">
-        <v>36.64</v>
-      </c>
-      <c r="F55" s="35">
-        <v>3.25</v>
-      </c>
-      <c r="G55" s="36">
-        <v>167</v>
-      </c>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="61"/>
-      <c r="L55" s="61"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="64"/>
-      <c r="B56" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D56" s="37">
-        <v>8</v>
-      </c>
-      <c r="E56" s="32">
-        <v>0</v>
-      </c>
-      <c r="F56" s="32">
-        <v>42.44</v>
-      </c>
-      <c r="G56" s="38">
-        <v>254</v>
-      </c>
-      <c r="H56" s="80"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-    </row>
-    <row r="57" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="64"/>
-      <c r="B57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D57" s="39">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E57" s="40">
-        <v>10.49</v>
-      </c>
-      <c r="F57" s="40">
-        <v>1.04</v>
-      </c>
-      <c r="G57" s="41">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-    </row>
-    <row r="60" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="70">
-        <v>2</v>
-      </c>
-      <c r="I60" s="61"/>
-      <c r="J60" s="61"/>
-      <c r="K60" s="61"/>
-      <c r="L60" s="61"/>
-    </row>
-    <row r="61" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="64"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="54">
+      <c r="I64" s="58"/>
+      <c r="J64" s="58"/>
+      <c r="K64" s="58"/>
+      <c r="L64" s="58"/>
+    </row>
+    <row r="65" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="64"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="42">
         <v>11.2</v>
       </c>
-      <c r="E61" s="55">
+      <c r="E65" s="43">
         <v>1.19</v>
       </c>
-      <c r="F61" s="55">
+      <c r="F65" s="43">
         <v>13.28</v>
       </c>
-      <c r="G61" s="56">
+      <c r="G65" s="44">
         <v>163</v>
       </c>
-      <c r="H61" s="80"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-    </row>
-    <row r="62" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="64"/>
-      <c r="B62" s="69"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-    </row>
-    <row r="63" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D64" s="34">
-        <v>2.64</v>
-      </c>
-      <c r="E64" s="35">
-        <v>21.6</v>
-      </c>
-      <c r="F64" s="35">
-        <v>7.8</v>
-      </c>
-      <c r="G64" s="36">
-        <v>142</v>
-      </c>
-      <c r="I64" s="61"/>
-      <c r="J64" s="61"/>
-      <c r="K64" s="61"/>
-      <c r="L64" s="61"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="79"/>
-      <c r="B65" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="E65" s="32">
-        <v>0.6</v>
-      </c>
-      <c r="F65" s="32">
-        <v>7.2</v>
-      </c>
-      <c r="G65" s="38">
-        <v>34</v>
-      </c>
-      <c r="H65" s="81" t="s">
-        <v>89</v>
-      </c>
+      <c r="H65" s="61"/>
       <c r="I65" s="28"/>
       <c r="J65" s="28"/>
       <c r="K65" s="28"/>
       <c r="L65" s="28"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="79"/>
-      <c r="B66" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="37">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="E66" s="32">
-        <v>0.27</v>
-      </c>
-      <c r="F66" s="32">
-        <v>1.3</v>
-      </c>
-      <c r="G66" s="38">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="J67" s="33"/>
-    </row>
-    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="64"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
@@ -2793,380 +2754,553 @@
       <c r="E68" s="25"/>
       <c r="F68" s="25"/>
       <c r="G68" s="25"/>
-      <c r="H68" s="63"/>
+      <c r="H68" s="60"/>
       <c r="I68" s="26"/>
       <c r="J68" s="26"/>
       <c r="K68" s="26"/>
       <c r="L68" s="26"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C69" s="7">
+    <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" s="47">
+        <v>2.64</v>
+      </c>
+      <c r="E70" s="24">
+        <v>21.6</v>
+      </c>
+      <c r="F70" s="24">
+        <v>7.8</v>
+      </c>
+      <c r="G70" s="45">
+        <v>142</v>
+      </c>
+      <c r="I70" s="58"/>
+      <c r="J70" s="58"/>
+      <c r="K70" s="58"/>
+      <c r="L70" s="58"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="63"/>
+      <c r="B71" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="48">
+        <v>0.4</v>
+      </c>
+      <c r="E71" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="F71" s="17">
+        <v>7.2</v>
+      </c>
+      <c r="G71" s="49">
+        <v>34</v>
+      </c>
+      <c r="H71" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="63"/>
+      <c r="B72" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="34">
+      <c r="C72" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="48">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E72" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="F72" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="G72" s="49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="J73" s="33"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="25"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="7">
+        <v>2</v>
+      </c>
+      <c r="D76" s="47">
         <v>3.8</v>
       </c>
-      <c r="E69" s="35">
+      <c r="E76" s="24">
         <v>42</v>
       </c>
-      <c r="F69" s="35">
+      <c r="F76" s="24">
         <v>11</v>
       </c>
-      <c r="G69" s="36">
+      <c r="G76" s="45">
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="64"/>
-      <c r="B70" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" s="7">
-        <v>1</v>
-      </c>
-      <c r="D70" s="37">
-        <v>5.6</v>
-      </c>
-      <c r="E70" s="32">
-        <v>0.59</v>
-      </c>
-      <c r="F70" s="32">
-        <v>6.64</v>
-      </c>
-      <c r="G70" s="38">
-        <v>81.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="64"/>
-      <c r="B71" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D71" s="39">
-        <v>3.2</v>
-      </c>
-      <c r="E71" s="40">
-        <v>0</v>
-      </c>
-      <c r="F71" s="40">
-        <v>33</v>
-      </c>
-      <c r="G71" s="41">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
-      <c r="C72" s="28"/>
-    </row>
-    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D75" s="34">
-        <v>1.7</v>
-      </c>
-      <c r="E75" s="35">
-        <v>7.65</v>
-      </c>
-      <c r="F75" s="35">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G75" s="36">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="64"/>
-      <c r="B76" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D76" s="37">
-        <v>2.6</v>
-      </c>
-      <c r="E76" s="32">
-        <v>5.6</v>
-      </c>
-      <c r="F76" s="32">
-        <v>21</v>
-      </c>
-      <c r="G76" s="38">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="64"/>
       <c r="B77" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="7">
+        <v>1</v>
+      </c>
+      <c r="D77" s="48">
+        <v>5.6</v>
+      </c>
+      <c r="E77" s="17">
+        <v>0.59</v>
+      </c>
+      <c r="F77" s="17">
+        <v>6.64</v>
+      </c>
+      <c r="G77" s="49">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="64"/>
+      <c r="B78" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="50">
+        <v>3.2</v>
+      </c>
+      <c r="E78" s="19">
+        <v>0</v>
+      </c>
+      <c r="F78" s="19">
+        <v>33</v>
+      </c>
+      <c r="G78" s="51">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="27"/>
+      <c r="C79" s="28"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="25"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="60"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="26"/>
+    </row>
+    <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="39">
+      <c r="C82" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="47">
+        <v>1.7</v>
+      </c>
+      <c r="E82" s="24">
+        <v>7.65</v>
+      </c>
+      <c r="F82" s="24">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G82" s="45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="64"/>
+      <c r="B83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="48">
+        <v>2.6</v>
+      </c>
+      <c r="E83" s="17">
+        <v>5.6</v>
+      </c>
+      <c r="F83" s="17">
+        <v>21</v>
+      </c>
+      <c r="G83" s="49">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="64"/>
+      <c r="B84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" s="50">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E77" s="40">
+      <c r="E84" s="19">
         <v>5.79</v>
       </c>
-      <c r="F77" s="40">
+      <c r="F84" s="19">
         <v>0.22</v>
       </c>
-      <c r="G77" s="41">
+      <c r="G84" s="51">
         <v>23</v>
       </c>
-      <c r="H77" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="73" t="s">
+      <c r="H84" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="25"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="26"/>
+    </row>
+    <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="47">
+        <v>0</v>
+      </c>
+      <c r="E88" s="24">
+        <v>8.5</v>
+      </c>
+      <c r="F88" s="24">
+        <v>6.6</v>
+      </c>
+      <c r="G88" s="45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="73"/>
+      <c r="B89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="48">
+        <v>2.6</v>
+      </c>
+      <c r="E89" s="17">
+        <v>5.6</v>
+      </c>
+      <c r="F89" s="17">
+        <v>21</v>
+      </c>
+      <c r="G89" s="49">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="74"/>
+      <c r="B90" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="50">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E90" s="19">
+        <v>2.34</v>
+      </c>
+      <c r="F90" s="19">
+        <v>1.94</v>
+      </c>
+      <c r="G90" s="51">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="25"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="60"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
+    </row>
+    <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" s="7">
+        <v>4</v>
+      </c>
+      <c r="D94" s="47">
+        <v>0.52</v>
+      </c>
+      <c r="E94" s="24">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="F94" s="24">
+        <v>1.73</v>
+      </c>
+      <c r="G94" s="45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="64"/>
+      <c r="B95" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D95" s="50">
+        <v>0</v>
+      </c>
+      <c r="E95" s="19">
+        <v>4</v>
+      </c>
+      <c r="F95" s="19">
+        <v>0</v>
+      </c>
+      <c r="G95" s="51">
+        <v>20</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="25"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="60"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="26"/>
+    </row>
+    <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="47">
+        <v>0.23</v>
+      </c>
+      <c r="E99" s="24">
+        <v>28.18</v>
+      </c>
+      <c r="F99" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="G99" s="45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="64"/>
+      <c r="B100" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D80" s="34">
+      <c r="D100" s="50">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="E100" s="19">
         <v>0</v>
       </c>
-      <c r="E80" s="35">
-        <v>8.5</v>
-      </c>
-      <c r="F80" s="35">
-        <v>6.6</v>
-      </c>
-      <c r="G80" s="36">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="74"/>
-      <c r="B81" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81" s="37">
-        <v>2.6</v>
-      </c>
-      <c r="E81" s="32">
-        <v>5.6</v>
-      </c>
-      <c r="F81" s="32">
+      <c r="F100" s="19">
+        <v>49.49</v>
+      </c>
+      <c r="G100" s="51">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="25"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="26"/>
+      <c r="L102" s="26"/>
+    </row>
+    <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B104" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C104" s="31">
+        <v>1</v>
+      </c>
+      <c r="D104" s="79">
+        <v>1.9</v>
+      </c>
+      <c r="E104" s="80">
         <v>21</v>
       </c>
-      <c r="G81" s="38">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="75"/>
-      <c r="B82" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="39">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E82" s="40">
-        <v>2.34</v>
-      </c>
-      <c r="F82" s="40">
-        <v>1.94</v>
-      </c>
-      <c r="G82" s="41">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C84" s="7">
-        <v>4</v>
-      </c>
-      <c r="D84" s="34">
-        <v>0.52</v>
-      </c>
-      <c r="E84" s="35">
-        <v>19.940000000000001</v>
-      </c>
-      <c r="F84" s="35">
-        <v>1.73</v>
-      </c>
-      <c r="G84" s="36">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="64"/>
-      <c r="B85" s="2" t="s">
+      <c r="F104" s="80">
+        <v>5.5</v>
+      </c>
+      <c r="G104" s="81">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="63"/>
+      <c r="B105" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D105" s="82">
+        <v>1.78</v>
+      </c>
+      <c r="E105" s="83">
+        <v>0</v>
+      </c>
+      <c r="F105" s="83">
+        <v>15.51</v>
+      </c>
+      <c r="G105" s="84">
         <v>82</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" s="39">
-        <v>0</v>
-      </c>
-      <c r="E85" s="40">
-        <v>4</v>
-      </c>
-      <c r="F85" s="40">
-        <v>0</v>
-      </c>
-      <c r="G85" s="41">
-        <v>20</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="47">
-        <v>0.23</v>
-      </c>
-      <c r="E87" s="24">
-        <v>28.18</v>
-      </c>
-      <c r="F87" s="24">
-        <v>2.5</v>
-      </c>
-      <c r="G87" s="45">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="64"/>
-      <c r="B88" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D88" s="50">
-        <v>9.5399999999999991</v>
-      </c>
-      <c r="E88" s="19">
-        <v>0</v>
-      </c>
-      <c r="F88" s="19">
-        <v>49.49</v>
-      </c>
-      <c r="G88" s="51">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C90" s="31">
-        <v>1</v>
-      </c>
-      <c r="D90" s="34">
-        <v>1.9</v>
-      </c>
-      <c r="E90" s="35">
-        <v>21</v>
-      </c>
-      <c r="F90" s="35">
-        <v>5.5</v>
-      </c>
-      <c r="G90" s="36">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="79"/>
-      <c r="B91" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D91" s="37">
-        <v>1.78</v>
-      </c>
-      <c r="E91" s="32">
-        <v>0</v>
-      </c>
-      <c r="F91" s="32">
-        <v>15.51</v>
-      </c>
-      <c r="G91" s="38">
-        <v>82</v>
-      </c>
-    </row>
+    </row>
+    <row r="106" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A94:A95"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A58:A60"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3191,12 +3325,12 @@
         <v>1760</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <f>A1*(20/100)</f>
@@ -3209,7 +3343,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <f>A1*(40/100)</f>
@@ -3222,7 +3356,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <f>A1*(40/100)</f>

--- a/Dieta.xlsx
+++ b/Dieta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79f1909e597772fb/Dieta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79f1909e597772fb/Dieta/dist/Dieta Github/Diet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="959" documentId="8_{90986033-560C-486B-8143-87D885832CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DF1E34E-7DD2-4794-B0CA-E397F0F302B9}"/>
+  <xr:revisionPtr revIDLastSave="960" documentId="8_{90986033-560C-486B-8143-87D885832CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0555D498-A03E-42C4-A68D-D63D1EFDAB1D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EEAF446F-95DF-4CB5-9D66-62E4FEDCD420}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
   <si>
     <t>Pão Integral</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>60g Morango | 60g Melão | 35g Uva</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -1194,12 +1197,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1237,27 +1261,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1597,8 +1600,8 @@
   <dimension ref="A1:T106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102:L102"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P105" sqref="P105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,11 +1622,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
       <c r="D1" s="21" t="s">
         <v>43</v>
       </c>
@@ -1638,7 +1641,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1662,7 +1665,7 @@
       <c r="H2" s="59"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1683,7 +1686,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1704,7 +1707,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1741,7 +1744,7 @@
       <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="69" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1762,7 +1765,7 @@
       <c r="G8" s="55">
         <v>89</v>
       </c>
-      <c r="N8" s="65"/>
+      <c r="N8" s="72"/>
       <c r="P8" s="28"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1770,7 +1773,7 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1789,7 +1792,7 @@
       <c r="G9" s="16">
         <v>51</v>
       </c>
-      <c r="N9" s="65"/>
+      <c r="N9" s="72"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1825,7 +1828,7 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="69" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1855,7 +1858,7 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
@@ -1883,7 +1886,7 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1982,7 +1985,7 @@
       <c r="H19" s="60"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="69" t="s">
         <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2008,7 +2011,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
@@ -2032,7 +2035,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
@@ -2075,7 +2078,7 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="69" t="s">
         <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2105,7 +2108,7 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="64"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2159,7 +2162,7 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="69" t="s">
         <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2186,7 +2189,7 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="2" t="s">
         <v>19</v>
       </c>
@@ -2211,7 +2214,7 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="64"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="2" t="s">
         <v>20</v>
       </c>
@@ -2281,11 +2284,11 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="75" t="s">
+      <c r="A38" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="76"/>
-      <c r="C38" s="77"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="84"/>
       <c r="N38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -2300,7 +2303,7 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="72" t="s">
+      <c r="A40" s="79" t="s">
         <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2331,7 +2334,7 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="2" t="s">
         <v>2</v>
       </c>
@@ -2361,7 +2364,7 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="74"/>
+      <c r="A42" s="81"/>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
@@ -2417,7 +2420,7 @@
     </row>
     <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="69" t="s">
         <v>63</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2444,7 +2447,7 @@
       <c r="L46" s="58"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="72"/>
+      <c r="A47" s="79"/>
       <c r="B47" s="2" t="s">
         <v>2</v>
       </c>
@@ -2470,7 +2473,7 @@
       <c r="L47" s="28"/>
     </row>
     <row r="48" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="72"/>
+      <c r="A48" s="79"/>
       <c r="B48" s="2" t="s">
         <v>16</v>
       </c>
@@ -2512,7 +2515,7 @@
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="72" t="s">
+      <c r="A52" s="79" t="s">
         <v>64</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -2539,7 +2542,7 @@
       <c r="L52" s="58"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="73"/>
+      <c r="A53" s="80"/>
       <c r="B53" s="5" t="s">
         <v>8</v>
       </c>
@@ -2565,7 +2568,7 @@
       <c r="L53" s="28"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="74"/>
+      <c r="A54" s="81"/>
       <c r="B54" s="5" t="s">
         <v>41</v>
       </c>
@@ -2607,7 +2610,7 @@
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="64" t="s">
+      <c r="A58" s="69" t="s">
         <v>65</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -2634,7 +2637,7 @@
       <c r="L58" s="58"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="64"/>
+      <c r="A59" s="69"/>
       <c r="B59" s="2" t="s">
         <v>29</v>
       </c>
@@ -2660,7 +2663,7 @@
       <c r="L59" s="28"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="64"/>
+      <c r="A60" s="69"/>
       <c r="B60" s="2" t="s">
         <v>30</v>
       </c>
@@ -2701,13 +2704,13 @@
       <c r="L62" s="26"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="64" t="s">
+      <c r="A64" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="66" t="s">
+      <c r="B64" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C64" s="69">
+      <c r="C64" s="76">
         <v>2</v>
       </c>
       <c r="I64" s="58"/>
@@ -2716,9 +2719,9 @@
       <c r="L64" s="58"/>
     </row>
     <row r="65" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="64"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="70"/>
+      <c r="A65" s="69"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="77"/>
       <c r="D65" s="42">
         <v>11.2</v>
       </c>
@@ -2738,9 +2741,9 @@
       <c r="L65" s="28"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="64"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="71"/>
+      <c r="A66" s="69"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="78"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -2762,7 +2765,7 @@
     </row>
     <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="63" t="s">
+      <c r="A70" s="71" t="s">
         <v>67</v>
       </c>
       <c r="B70" s="30" t="s">
@@ -2789,7 +2792,7 @@
       <c r="L70" s="58"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="63"/>
+      <c r="A71" s="71"/>
       <c r="B71" s="30" t="s">
         <v>54</v>
       </c>
@@ -2817,7 +2820,7 @@
       <c r="L71" s="28"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="63"/>
+      <c r="A72" s="71"/>
       <c r="B72" s="30" t="s">
         <v>2</v>
       </c>
@@ -2860,7 +2863,7 @@
     </row>
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="64" t="s">
+      <c r="A76" s="69" t="s">
         <v>70</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -2883,7 +2886,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="64"/>
+      <c r="A77" s="69"/>
       <c r="B77" s="2" t="s">
         <v>34</v>
       </c>
@@ -2904,7 +2907,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="64"/>
+      <c r="A78" s="69"/>
       <c r="B78" s="2" t="s">
         <v>35</v>
       </c>
@@ -2944,7 +2947,7 @@
     </row>
     <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="64" t="s">
+      <c r="A82" s="69" t="s">
         <v>68</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -2967,7 +2970,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="64"/>
+      <c r="A83" s="69"/>
       <c r="B83" s="2" t="s">
         <v>19</v>
       </c>
@@ -2988,7 +2991,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="64"/>
+      <c r="A84" s="69"/>
       <c r="B84" s="2" t="s">
         <v>39</v>
       </c>
@@ -3028,7 +3031,7 @@
     </row>
     <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="72" t="s">
+      <c r="A88" s="79" t="s">
         <v>69</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -3051,7 +3054,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="73"/>
+      <c r="A89" s="80"/>
       <c r="B89" s="2" t="s">
         <v>19</v>
       </c>
@@ -3072,7 +3075,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="74"/>
+      <c r="A90" s="81"/>
       <c r="B90" s="2" t="s">
         <v>41</v>
       </c>
@@ -3109,7 +3112,7 @@
     </row>
     <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="64" t="s">
+      <c r="A94" s="69" t="s">
         <v>74</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -3132,7 +3135,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="64"/>
+      <c r="A95" s="69"/>
       <c r="B95" s="2" t="s">
         <v>73</v>
       </c>
@@ -3156,7 +3159,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
       <c r="B97" s="26"/>
       <c r="C97" s="25"/>
@@ -3170,9 +3173,9 @@
       <c r="K97" s="26"/>
       <c r="L97" s="26"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="64" t="s">
+    <row r="98" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="69" t="s">
         <v>79</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -3194,8 +3197,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="64"/>
+    <row r="100" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="69"/>
       <c r="B100" s="2" t="s">
         <v>50</v>
       </c>
@@ -3215,8 +3218,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="25"/>
       <c r="B102" s="26"/>
       <c r="C102" s="25"/>
@@ -3230,9 +3233,9 @@
       <c r="K102" s="26"/>
       <c r="L102" s="26"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="104" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="63" t="s">
+    <row r="103" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="71" t="s">
         <v>81</v>
       </c>
       <c r="B104" s="30" t="s">
@@ -3241,50 +3244,46 @@
       <c r="C104" s="31">
         <v>1</v>
       </c>
-      <c r="D104" s="79">
+      <c r="D104" s="63">
         <v>1.9</v>
       </c>
-      <c r="E104" s="80">
+      <c r="E104" s="64">
         <v>21</v>
       </c>
-      <c r="F104" s="80">
+      <c r="F104" s="64">
         <v>5.5</v>
       </c>
-      <c r="G104" s="81">
+      <c r="G104" s="65">
         <v>123</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="63"/>
+    <row r="105" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="71"/>
       <c r="B105" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C105" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D105" s="82">
+      <c r="D105" s="66">
         <v>1.78</v>
       </c>
-      <c r="E105" s="83">
+      <c r="E105" s="67">
         <v>0</v>
       </c>
-      <c r="F105" s="83">
+      <c r="F105" s="67">
         <v>15.51</v>
       </c>
-      <c r="G105" s="84">
+      <c r="G105" s="68">
         <v>82</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="P105" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A20:A22"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="A99:A100"/>
     <mergeCell ref="N8:N9"/>
@@ -3301,6 +3300,13 @@
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Dieta.xlsx
+++ b/Dieta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79f1909e597772fb/Dieta/dist/Dieta Github/Diet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79f1909e597772fb/Dieta/Dieta Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="960" documentId="8_{90986033-560C-486B-8143-87D885832CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0555D498-A03E-42C4-A68D-D63D1EFDAB1D}"/>
+  <xr:revisionPtr revIDLastSave="963" documentId="8_{90986033-560C-486B-8143-87D885832CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CAF6C83-DD03-4150-8066-D581F8744094}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EEAF446F-95DF-4CB5-9D66-62E4FEDCD420}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>Pão Integral</t>
   </si>
@@ -309,7 +309,7 @@
     <t>60g Morango | 60g Melão | 35g Uva</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>TESTE</t>
   </si>
 </sst>
 </file>
@@ -1215,53 +1215,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1278,6 +1278,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1597,11 +1601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4246DEA4-48F2-43EF-A60C-C727AC3FFA78}">
-  <dimension ref="A1:T106"/>
+  <dimension ref="A1:T109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P105" sqref="P105"/>
+      <selection pane="bottomLeft" activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,11 +1626,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
       <c r="D1" s="21" t="s">
         <v>43</v>
       </c>
@@ -1641,7 +1645,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1665,7 +1669,7 @@
       <c r="H2" s="59"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1686,7 +1690,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1707,7 +1711,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1744,7 +1748,7 @@
       <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="70" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1765,7 +1769,7 @@
       <c r="G8" s="55">
         <v>89</v>
       </c>
-      <c r="N8" s="72"/>
+      <c r="N8" s="71"/>
       <c r="P8" s="28"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1773,7 +1777,7 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1792,7 +1796,7 @@
       <c r="G9" s="16">
         <v>51</v>
       </c>
-      <c r="N9" s="72"/>
+      <c r="N9" s="71"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1828,7 +1832,7 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="70" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1858,7 +1862,7 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
@@ -1886,7 +1890,7 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1985,7 +1989,7 @@
       <c r="H19" s="60"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="70" t="s">
         <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2011,7 +2015,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
@@ -2035,7 +2039,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
@@ -2078,7 +2082,7 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="70" t="s">
         <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2108,7 +2112,7 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2162,7 +2166,7 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="70" t="s">
         <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2189,7 +2193,7 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="2" t="s">
         <v>19</v>
       </c>
@@ -2214,7 +2218,7 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="2" t="s">
         <v>20</v>
       </c>
@@ -2284,11 +2288,11 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="83"/>
-      <c r="C38" s="84"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="83"/>
       <c r="N38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -2303,7 +2307,7 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="79" t="s">
+      <c r="A40" s="78" t="s">
         <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2334,7 +2338,7 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="80"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="2" t="s">
         <v>2</v>
       </c>
@@ -2364,7 +2368,7 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="81"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
@@ -2420,7 +2424,7 @@
     </row>
     <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="69" t="s">
+      <c r="A46" s="70" t="s">
         <v>63</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2447,7 +2451,7 @@
       <c r="L46" s="58"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="79"/>
+      <c r="A47" s="78"/>
       <c r="B47" s="2" t="s">
         <v>2</v>
       </c>
@@ -2473,7 +2477,7 @@
       <c r="L47" s="28"/>
     </row>
     <row r="48" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="79"/>
+      <c r="A48" s="78"/>
       <c r="B48" s="2" t="s">
         <v>16</v>
       </c>
@@ -2515,7 +2519,7 @@
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="79" t="s">
+      <c r="A52" s="78" t="s">
         <v>64</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -2542,7 +2546,7 @@
       <c r="L52" s="58"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="80"/>
+      <c r="A53" s="79"/>
       <c r="B53" s="5" t="s">
         <v>8</v>
       </c>
@@ -2568,7 +2572,7 @@
       <c r="L53" s="28"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="81"/>
+      <c r="A54" s="80"/>
       <c r="B54" s="5" t="s">
         <v>41</v>
       </c>
@@ -2610,7 +2614,7 @@
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="69" t="s">
+      <c r="A58" s="70" t="s">
         <v>65</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -2637,7 +2641,7 @@
       <c r="L58" s="58"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="69"/>
+      <c r="A59" s="70"/>
       <c r="B59" s="2" t="s">
         <v>29</v>
       </c>
@@ -2663,7 +2667,7 @@
       <c r="L59" s="28"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="69"/>
+      <c r="A60" s="70"/>
       <c r="B60" s="2" t="s">
         <v>30</v>
       </c>
@@ -2704,13 +2708,13 @@
       <c r="L62" s="26"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="69" t="s">
+      <c r="A64" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="73" t="s">
+      <c r="B64" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="C64" s="76">
+      <c r="C64" s="75">
         <v>2</v>
       </c>
       <c r="I64" s="58"/>
@@ -2719,9 +2723,9 @@
       <c r="L64" s="58"/>
     </row>
     <row r="65" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="69"/>
-      <c r="B65" s="74"/>
-      <c r="C65" s="77"/>
+      <c r="A65" s="70"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="76"/>
       <c r="D65" s="42">
         <v>11.2</v>
       </c>
@@ -2741,9 +2745,9 @@
       <c r="L65" s="28"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="69"/>
-      <c r="B66" s="75"/>
-      <c r="C66" s="78"/>
+      <c r="A66" s="70"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="77"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -2765,7 +2769,7 @@
     </row>
     <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="71" t="s">
+      <c r="A70" s="69" t="s">
         <v>67</v>
       </c>
       <c r="B70" s="30" t="s">
@@ -2792,7 +2796,7 @@
       <c r="L70" s="58"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
+      <c r="A71" s="69"/>
       <c r="B71" s="30" t="s">
         <v>54</v>
       </c>
@@ -2820,7 +2824,7 @@
       <c r="L71" s="28"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
+      <c r="A72" s="69"/>
       <c r="B72" s="30" t="s">
         <v>2</v>
       </c>
@@ -2863,7 +2867,7 @@
     </row>
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="69" t="s">
+      <c r="A76" s="70" t="s">
         <v>70</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -2886,7 +2890,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="69"/>
+      <c r="A77" s="70"/>
       <c r="B77" s="2" t="s">
         <v>34</v>
       </c>
@@ -2907,7 +2911,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="69"/>
+      <c r="A78" s="70"/>
       <c r="B78" s="2" t="s">
         <v>35</v>
       </c>
@@ -2947,7 +2951,7 @@
     </row>
     <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="69" t="s">
+      <c r="A82" s="70" t="s">
         <v>68</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -2970,7 +2974,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="69"/>
+      <c r="A83" s="70"/>
       <c r="B83" s="2" t="s">
         <v>19</v>
       </c>
@@ -2991,7 +2995,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="69"/>
+      <c r="A84" s="70"/>
       <c r="B84" s="2" t="s">
         <v>39</v>
       </c>
@@ -3031,7 +3035,7 @@
     </row>
     <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="79" t="s">
+      <c r="A88" s="78" t="s">
         <v>69</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -3054,7 +3058,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="80"/>
+      <c r="A89" s="79"/>
       <c r="B89" s="2" t="s">
         <v>19</v>
       </c>
@@ -3075,7 +3079,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="81"/>
+      <c r="A90" s="80"/>
       <c r="B90" s="2" t="s">
         <v>41</v>
       </c>
@@ -3112,7 +3116,7 @@
     </row>
     <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="69" t="s">
+      <c r="A94" s="70" t="s">
         <v>74</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -3135,7 +3139,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="69"/>
+      <c r="A95" s="70"/>
       <c r="B95" s="2" t="s">
         <v>73</v>
       </c>
@@ -3159,7 +3163,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
       <c r="B97" s="26"/>
       <c r="C97" s="25"/>
@@ -3173,9 +3177,9 @@
       <c r="K97" s="26"/>
       <c r="L97" s="26"/>
     </row>
-    <row r="98" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="69" t="s">
+    <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="70" t="s">
         <v>79</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -3197,8 +3201,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="69"/>
+    <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="70"/>
       <c r="B100" s="2" t="s">
         <v>50</v>
       </c>
@@ -3218,8 +3222,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="25"/>
       <c r="B102" s="26"/>
       <c r="C102" s="25"/>
@@ -3233,9 +3237,9 @@
       <c r="K102" s="26"/>
       <c r="L102" s="26"/>
     </row>
-    <row r="103" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="104" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="71" t="s">
+    <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="69" t="s">
         <v>81</v>
       </c>
       <c r="B104" s="30" t="s">
@@ -3257,8 +3261,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="71"/>
+    <row r="105" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="69"/>
       <c r="B105" s="30" t="s">
         <v>16</v>
       </c>
@@ -3277,13 +3281,63 @@
       <c r="G105" s="68">
         <v>82</v>
       </c>
-      <c r="P105" t="s">
+    </row>
+    <row r="106" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="69" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B107" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C107" s="31">
+        <v>1</v>
+      </c>
+      <c r="D107" s="63">
+        <v>1.9</v>
+      </c>
+      <c r="E107" s="64">
+        <v>21</v>
+      </c>
+      <c r="F107" s="64">
+        <v>5.5</v>
+      </c>
+      <c r="G107" s="65">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="69"/>
+      <c r="B108" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D108" s="66">
+        <v>1.78</v>
+      </c>
+      <c r="E108" s="67">
+        <v>0</v>
+      </c>
+      <c r="F108" s="67">
+        <v>15.51</v>
+      </c>
+      <c r="G108" s="68">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="A99:A100"/>
     <mergeCell ref="N8:N9"/>
@@ -3300,13 +3354,6 @@
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Dieta.xlsx
+++ b/Dieta.xlsx
@@ -1221,6 +1221,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1259,9 +1262,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1604,8 +1604,8 @@
   <dimension ref="A1:T109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A109" sqref="A109"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,11 +1626,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
       <c r="D1" s="21" t="s">
         <v>43</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="G8" s="55">
         <v>89</v>
       </c>
-      <c r="N8" s="71"/>
+      <c r="N8" s="72"/>
       <c r="P8" s="28"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1796,7 +1796,7 @@
       <c r="G9" s="16">
         <v>51</v>
       </c>
-      <c r="N9" s="71"/>
+      <c r="N9" s="72"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2288,11 +2288,11 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="82"/>
-      <c r="C38" s="83"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="84"/>
       <c r="N38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -2307,7 +2307,7 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="78" t="s">
+      <c r="A40" s="79" t="s">
         <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2338,7 +2338,7 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="79"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="2" t="s">
         <v>2</v>
       </c>
@@ -2368,7 +2368,7 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="80"/>
+      <c r="A42" s="81"/>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
@@ -2451,7 +2451,7 @@
       <c r="L46" s="58"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="78"/>
+      <c r="A47" s="79"/>
       <c r="B47" s="2" t="s">
         <v>2</v>
       </c>
@@ -2477,7 +2477,7 @@
       <c r="L47" s="28"/>
     </row>
     <row r="48" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="78"/>
+      <c r="A48" s="79"/>
       <c r="B48" s="2" t="s">
         <v>16</v>
       </c>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="78" t="s">
+      <c r="A52" s="79" t="s">
         <v>64</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -2546,7 +2546,7 @@
       <c r="L52" s="58"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="79"/>
+      <c r="A53" s="80"/>
       <c r="B53" s="5" t="s">
         <v>8</v>
       </c>
@@ -2572,7 +2572,7 @@
       <c r="L53" s="28"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="80"/>
+      <c r="A54" s="81"/>
       <c r="B54" s="5" t="s">
         <v>41</v>
       </c>
@@ -2711,10 +2711,10 @@
       <c r="A64" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="72" t="s">
+      <c r="B64" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C64" s="75">
+      <c r="C64" s="76">
         <v>2</v>
       </c>
       <c r="I64" s="58"/>
@@ -2724,8 +2724,8 @@
     </row>
     <row r="65" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="70"/>
-      <c r="B65" s="73"/>
-      <c r="C65" s="76"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="77"/>
       <c r="D65" s="42">
         <v>11.2</v>
       </c>
@@ -2746,8 +2746,8 @@
     </row>
     <row r="66" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A66" s="70"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="77"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="78"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -3035,7 +3035,7 @@
     </row>
     <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="78" t="s">
+      <c r="A88" s="79" t="s">
         <v>69</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -3058,7 +3058,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="79"/>
+      <c r="A89" s="80"/>
       <c r="B89" s="2" t="s">
         <v>19</v>
       </c>
@@ -3079,7 +3079,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="80"/>
+      <c r="A90" s="81"/>
       <c r="B90" s="2" t="s">
         <v>41</v>
       </c>
@@ -3330,16 +3330,6 @@
     <row r="109" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A99:A100"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="B64:B66"/>
@@ -3354,6 +3344,16 @@
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A99:A100"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Dieta.xlsx
+++ b/Dieta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79f1909e597772fb/Dieta/Dieta Github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79f1909e597772fb/Dieta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="963" documentId="8_{90986033-560C-486B-8143-87D885832CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CAF6C83-DD03-4150-8066-D581F8744094}"/>
+  <xr:revisionPtr revIDLastSave="959" documentId="8_{90986033-560C-486B-8143-87D885832CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DF1E34E-7DD2-4794-B0CA-E397F0F302B9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EEAF446F-95DF-4CB5-9D66-62E4FEDCD420}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
   <si>
     <t>Pão Integral</t>
   </si>
@@ -307,9 +307,6 @@
   </si>
   <si>
     <t>60g Morango | 60g Melão | 35g Uva</t>
-  </si>
-  <si>
-    <t>TESTE</t>
   </si>
 </sst>
 </file>
@@ -1197,70 +1194,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1278,10 +1275,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1601,11 +1594,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4246DEA4-48F2-43EF-A60C-C727AC3FFA78}">
-  <dimension ref="A1:T109"/>
+  <dimension ref="A1:T106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102:L102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,11 +1619,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
       <c r="D1" s="21" t="s">
         <v>43</v>
       </c>
@@ -1645,7 +1638,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="64" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1669,7 +1662,7 @@
       <c r="H2" s="59"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1690,7 +1683,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1711,7 +1704,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1748,7 +1741,7 @@
       <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="64" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1769,7 +1762,7 @@
       <c r="G8" s="55">
         <v>89</v>
       </c>
-      <c r="N8" s="72"/>
+      <c r="N8" s="65"/>
       <c r="P8" s="28"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1777,7 +1770,7 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1796,7 +1789,7 @@
       <c r="G9" s="16">
         <v>51</v>
       </c>
-      <c r="N9" s="72"/>
+      <c r="N9" s="65"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1832,7 +1825,7 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="64" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1862,7 +1855,7 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
@@ -1890,7 +1883,7 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1989,7 +1982,7 @@
       <c r="H19" s="60"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="64" t="s">
         <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2015,7 +2008,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
@@ -2039,7 +2032,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="70"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
@@ -2082,7 +2075,7 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="64" t="s">
         <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2112,7 +2105,7 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="70"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2166,7 +2159,7 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="64" t="s">
         <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2193,7 +2186,7 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="2" t="s">
         <v>19</v>
       </c>
@@ -2218,7 +2211,7 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="70"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="2" t="s">
         <v>20</v>
       </c>
@@ -2288,11 +2281,11 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="83"/>
-      <c r="C38" s="84"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="77"/>
       <c r="N38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -2307,7 +2300,7 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="79" t="s">
+      <c r="A40" s="72" t="s">
         <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2338,7 +2331,7 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="80"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="2" t="s">
         <v>2</v>
       </c>
@@ -2368,7 +2361,7 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="81"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
@@ -2424,7 +2417,7 @@
     </row>
     <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="70" t="s">
+      <c r="A46" s="64" t="s">
         <v>63</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2451,7 +2444,7 @@
       <c r="L46" s="58"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="79"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="2" t="s">
         <v>2</v>
       </c>
@@ -2477,7 +2470,7 @@
       <c r="L47" s="28"/>
     </row>
     <row r="48" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="79"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="2" t="s">
         <v>16</v>
       </c>
@@ -2519,7 +2512,7 @@
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="79" t="s">
+      <c r="A52" s="72" t="s">
         <v>64</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -2546,7 +2539,7 @@
       <c r="L52" s="58"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="80"/>
+      <c r="A53" s="73"/>
       <c r="B53" s="5" t="s">
         <v>8</v>
       </c>
@@ -2572,7 +2565,7 @@
       <c r="L53" s="28"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="81"/>
+      <c r="A54" s="74"/>
       <c r="B54" s="5" t="s">
         <v>41</v>
       </c>
@@ -2614,7 +2607,7 @@
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="70" t="s">
+      <c r="A58" s="64" t="s">
         <v>65</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -2641,7 +2634,7 @@
       <c r="L58" s="58"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="70"/>
+      <c r="A59" s="64"/>
       <c r="B59" s="2" t="s">
         <v>29</v>
       </c>
@@ -2667,7 +2660,7 @@
       <c r="L59" s="28"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="70"/>
+      <c r="A60" s="64"/>
       <c r="B60" s="2" t="s">
         <v>30</v>
       </c>
@@ -2708,13 +2701,13 @@
       <c r="L62" s="26"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="70" t="s">
+      <c r="A64" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="73" t="s">
+      <c r="B64" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="C64" s="76">
+      <c r="C64" s="69">
         <v>2</v>
       </c>
       <c r="I64" s="58"/>
@@ -2723,9 +2716,9 @@
       <c r="L64" s="58"/>
     </row>
     <row r="65" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="70"/>
-      <c r="B65" s="74"/>
-      <c r="C65" s="77"/>
+      <c r="A65" s="64"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="70"/>
       <c r="D65" s="42">
         <v>11.2</v>
       </c>
@@ -2745,9 +2738,9 @@
       <c r="L65" s="28"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="70"/>
-      <c r="B66" s="75"/>
-      <c r="C66" s="78"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="71"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -2769,7 +2762,7 @@
     </row>
     <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="69" t="s">
+      <c r="A70" s="63" t="s">
         <v>67</v>
       </c>
       <c r="B70" s="30" t="s">
@@ -2796,7 +2789,7 @@
       <c r="L70" s="58"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="69"/>
+      <c r="A71" s="63"/>
       <c r="B71" s="30" t="s">
         <v>54</v>
       </c>
@@ -2824,7 +2817,7 @@
       <c r="L71" s="28"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="69"/>
+      <c r="A72" s="63"/>
       <c r="B72" s="30" t="s">
         <v>2</v>
       </c>
@@ -2867,7 +2860,7 @@
     </row>
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="70" t="s">
+      <c r="A76" s="64" t="s">
         <v>70</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -2890,7 +2883,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="70"/>
+      <c r="A77" s="64"/>
       <c r="B77" s="2" t="s">
         <v>34</v>
       </c>
@@ -2911,7 +2904,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="70"/>
+      <c r="A78" s="64"/>
       <c r="B78" s="2" t="s">
         <v>35</v>
       </c>
@@ -2951,7 +2944,7 @@
     </row>
     <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="70" t="s">
+      <c r="A82" s="64" t="s">
         <v>68</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -2974,7 +2967,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="70"/>
+      <c r="A83" s="64"/>
       <c r="B83" s="2" t="s">
         <v>19</v>
       </c>
@@ -2995,7 +2988,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="70"/>
+      <c r="A84" s="64"/>
       <c r="B84" s="2" t="s">
         <v>39</v>
       </c>
@@ -3035,7 +3028,7 @@
     </row>
     <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="79" t="s">
+      <c r="A88" s="72" t="s">
         <v>69</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -3058,7 +3051,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="80"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="2" t="s">
         <v>19</v>
       </c>
@@ -3079,7 +3072,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="81"/>
+      <c r="A90" s="74"/>
       <c r="B90" s="2" t="s">
         <v>41</v>
       </c>
@@ -3116,7 +3109,7 @@
     </row>
     <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="70" t="s">
+      <c r="A94" s="64" t="s">
         <v>74</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -3139,7 +3132,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="70"/>
+      <c r="A95" s="64"/>
       <c r="B95" s="2" t="s">
         <v>73</v>
       </c>
@@ -3179,7 +3172,7 @@
     </row>
     <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="99" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="70" t="s">
+      <c r="A99" s="64" t="s">
         <v>79</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -3202,7 +3195,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="70"/>
+      <c r="A100" s="64"/>
       <c r="B100" s="2" t="s">
         <v>50</v>
       </c>
@@ -3239,7 +3232,7 @@
     </row>
     <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="104" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="69" t="s">
+      <c r="A104" s="63" t="s">
         <v>81</v>
       </c>
       <c r="B104" s="30" t="s">
@@ -3248,88 +3241,52 @@
       <c r="C104" s="31">
         <v>1</v>
       </c>
-      <c r="D104" s="63">
+      <c r="D104" s="79">
         <v>1.9</v>
       </c>
-      <c r="E104" s="64">
+      <c r="E104" s="80">
         <v>21</v>
       </c>
-      <c r="F104" s="64">
+      <c r="F104" s="80">
         <v>5.5</v>
       </c>
-      <c r="G104" s="65">
+      <c r="G104" s="81">
         <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="69"/>
+      <c r="A105" s="63"/>
       <c r="B105" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C105" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D105" s="66">
+      <c r="D105" s="82">
         <v>1.78</v>
       </c>
-      <c r="E105" s="67">
+      <c r="E105" s="83">
         <v>0</v>
       </c>
-      <c r="F105" s="67">
+      <c r="F105" s="83">
         <v>15.51</v>
       </c>
-      <c r="G105" s="68">
+      <c r="G105" s="84">
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="107" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="B107" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C107" s="31">
-        <v>1</v>
-      </c>
-      <c r="D107" s="63">
-        <v>1.9</v>
-      </c>
-      <c r="E107" s="64">
-        <v>21</v>
-      </c>
-      <c r="F107" s="64">
-        <v>5.5</v>
-      </c>
-      <c r="G107" s="65">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="69"/>
-      <c r="B108" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C108" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D108" s="66">
-        <v>1.78</v>
-      </c>
-      <c r="E108" s="67">
-        <v>0</v>
-      </c>
-      <c r="F108" s="67">
-        <v>15.51</v>
-      </c>
-      <c r="G108" s="68">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="23">
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A99:A100"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="B64:B66"/>
@@ -3344,16 +3301,6 @@
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A99:A100"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Dieta.xlsx
+++ b/Dieta.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79f1909e597772fb/Dieta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79f1909e597772fb/Dieta/dist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="959" documentId="8_{90986033-560C-486B-8143-87D885832CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DF1E34E-7DD2-4794-B0CA-E397F0F302B9}"/>
+  <xr:revisionPtr revIDLastSave="998" documentId="8_{90986033-560C-486B-8143-87D885832CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8062DC1D-FE80-4728-959B-DFAEB3012DAB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EEAF446F-95DF-4CB5-9D66-62E4FEDCD420}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Alimentos" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
   <si>
     <t>Pão Integral</t>
   </si>
@@ -159,9 +160,6 @@
     <t>Mamão</t>
   </si>
   <si>
-    <t>DIETA 1.760kcal</t>
-  </si>
-  <si>
     <t>Pasta Dr. Peanut</t>
   </si>
   <si>
@@ -279,9 +277,6 @@
     <t>Janta (Domingo)</t>
   </si>
   <si>
-    <t>20g Frango desfiado</t>
-  </si>
-  <si>
     <t>Lanche 2 (4)</t>
   </si>
   <si>
@@ -307,6 +302,33 @@
   </si>
   <si>
     <t>60g Morango | 60g Melão | 35g Uva</t>
+  </si>
+  <si>
+    <t>Arroz branco cozido</t>
+  </si>
+  <si>
+    <t>Peito de Frango no Forno, Grelhado ou Assado</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>CALORIAS</t>
+  </si>
+  <si>
+    <t>Lanche 2 (5)</t>
+  </si>
+  <si>
+    <t>1 pão frances</t>
+  </si>
+  <si>
+    <t>DIETA +- 1.760kcal</t>
   </si>
 </sst>
 </file>
@@ -1194,12 +1216,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1237,27 +1280,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1275,6 +1297,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1594,11 +1620,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4246DEA4-48F2-43EF-A60C-C727AC3FFA78}">
-  <dimension ref="A1:T106"/>
+  <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102:L102"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,33 +1645,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
+      <c r="A1" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
       <c r="D1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
-        <v>56</v>
+      <c r="A2" s="69" t="s">
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="22">
         <v>1.32</v>
@@ -1662,7 +1688,7 @@
       <c r="H2" s="59"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1683,12 +1709,12 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="11">
         <v>0.56999999999999995</v>
@@ -1704,12 +1730,12 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="10">
         <v>1.53</v>
@@ -1741,8 +1767,8 @@
       <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
-        <v>57</v>
+      <c r="A8" s="69" t="s">
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -1762,7 +1788,7 @@
       <c r="G8" s="55">
         <v>89</v>
       </c>
-      <c r="N8" s="65"/>
+      <c r="N8" s="72"/>
       <c r="P8" s="28"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1770,7 +1796,7 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1789,7 +1815,7 @@
       <c r="G9" s="16">
         <v>51</v>
       </c>
-      <c r="N9" s="65"/>
+      <c r="N9" s="72"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1825,8 +1851,8 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
-        <v>58</v>
+      <c r="A12" s="69" t="s">
+        <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -1847,7 +1873,7 @@
         <v>141</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1855,9 +1881,9 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>32</v>
@@ -1875,7 +1901,7 @@
         <v>254</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1883,7 +1909,7 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1956,7 +1982,7 @@
         <v>72</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N17" s="1"/>
       <c r="P17" s="1"/>
@@ -1982,14 +2008,14 @@
       <c r="H19" s="60"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
-        <v>59</v>
+      <c r="A20" s="69" t="s">
+        <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D20" s="47">
         <v>0.1</v>
@@ -2004,11 +2030,11 @@
         <v>84</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
@@ -2028,16 +2054,16 @@
         <v>116</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="50">
         <v>0.56999999999999995</v>
@@ -2075,8 +2101,8 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
-        <v>60</v>
+      <c r="A25" s="69" t="s">
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
@@ -2097,7 +2123,7 @@
         <v>129</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2105,9 +2131,9 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="64"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>10</v>
@@ -2125,7 +2151,7 @@
         <v>215</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2159,8 +2185,8 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64" t="s">
-        <v>61</v>
+      <c r="A29" s="69" t="s">
+        <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>18</v>
@@ -2186,7 +2212,7 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="2" t="s">
         <v>19</v>
       </c>
@@ -2211,12 +2237,12 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="64"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="52">
         <v>2.35</v>
@@ -2281,11 +2307,11 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="75" t="s">
+      <c r="A38" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="76"/>
-      <c r="C38" s="77"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="84"/>
       <c r="N38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -2300,8 +2326,8 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="72" t="s">
-        <v>62</v>
+      <c r="A40" s="79" t="s">
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>0</v>
@@ -2331,12 +2357,12 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41" s="48">
         <v>0.56999999999999995</v>
@@ -2361,7 +2387,7 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="74"/>
+      <c r="A42" s="81"/>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
@@ -2417,8 +2443,8 @@
     </row>
     <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64" t="s">
-        <v>63</v>
+      <c r="A46" s="69" t="s">
+        <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>25</v>
@@ -2444,7 +2470,7 @@
       <c r="L46" s="58"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="72"/>
+      <c r="A47" s="79"/>
       <c r="B47" s="2" t="s">
         <v>2</v>
       </c>
@@ -2470,7 +2496,7 @@
       <c r="L47" s="28"/>
     </row>
     <row r="48" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="72"/>
+      <c r="A48" s="79"/>
       <c r="B48" s="2" t="s">
         <v>16</v>
       </c>
@@ -2512,14 +2538,14 @@
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="72" t="s">
-        <v>64</v>
+      <c r="A52" s="79" t="s">
+        <v>63</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D52" s="47">
         <v>0.33</v>
@@ -2539,7 +2565,7 @@
       <c r="L52" s="58"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="73"/>
+      <c r="A53" s="80"/>
       <c r="B53" s="5" t="s">
         <v>8</v>
       </c>
@@ -2565,12 +2591,12 @@
       <c r="L53" s="28"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="74"/>
+      <c r="A54" s="81"/>
       <c r="B54" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="D54" s="50">
         <v>2.2999999999999998</v>
@@ -2607,8 +2633,8 @@
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="64" t="s">
-        <v>65</v>
+      <c r="A58" s="69" t="s">
+        <v>64</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>28</v>
@@ -2634,12 +2660,12 @@
       <c r="L58" s="58"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="64"/>
+      <c r="A59" s="69"/>
       <c r="B59" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D59" s="48">
         <v>8</v>
@@ -2660,7 +2686,7 @@
       <c r="L59" s="28"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="64"/>
+      <c r="A60" s="69"/>
       <c r="B60" s="2" t="s">
         <v>30</v>
       </c>
@@ -2701,13 +2727,13 @@
       <c r="L62" s="26"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64" s="69">
+      <c r="A64" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="76">
         <v>2</v>
       </c>
       <c r="I64" s="58"/>
@@ -2716,9 +2742,9 @@
       <c r="L64" s="58"/>
     </row>
     <row r="65" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="64"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="70"/>
+      <c r="A65" s="69"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="77"/>
       <c r="D65" s="42">
         <v>11.2</v>
       </c>
@@ -2738,9 +2764,9 @@
       <c r="L65" s="28"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="64"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="71"/>
+      <c r="A66" s="69"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="78"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -2762,14 +2788,14 @@
     </row>
     <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="63" t="s">
-        <v>67</v>
+      <c r="A70" s="71" t="s">
+        <v>66</v>
       </c>
       <c r="B70" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="31" t="s">
         <v>52</v>
-      </c>
-      <c r="C70" s="31" t="s">
-        <v>53</v>
       </c>
       <c r="D70" s="47">
         <v>2.64</v>
@@ -2789,12 +2815,12 @@
       <c r="L70" s="58"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="63"/>
+      <c r="A71" s="71"/>
       <c r="B71" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="31" t="s">
         <v>54</v>
-      </c>
-      <c r="C71" s="31" t="s">
-        <v>55</v>
       </c>
       <c r="D71" s="48">
         <v>0.4</v>
@@ -2808,16 +2834,14 @@
       <c r="G71" s="49">
         <v>34</v>
       </c>
-      <c r="H71" s="62" t="s">
-        <v>80</v>
-      </c>
+      <c r="H71" s="62"/>
       <c r="I71" s="28"/>
       <c r="J71" s="28"/>
       <c r="K71" s="28"/>
       <c r="L71" s="28"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="63"/>
+      <c r="A72" s="71"/>
       <c r="B72" s="30" t="s">
         <v>2</v>
       </c>
@@ -2860,8 +2884,8 @@
     </row>
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="64" t="s">
-        <v>70</v>
+      <c r="A76" s="69" t="s">
+        <v>69</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>33</v>
@@ -2883,7 +2907,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="64"/>
+      <c r="A77" s="69"/>
       <c r="B77" s="2" t="s">
         <v>34</v>
       </c>
@@ -2904,7 +2928,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="64"/>
+      <c r="A78" s="69"/>
       <c r="B78" s="2" t="s">
         <v>35</v>
       </c>
@@ -2944,8 +2968,8 @@
     </row>
     <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="64" t="s">
-        <v>68</v>
+      <c r="A82" s="69" t="s">
+        <v>67</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>37</v>
@@ -2967,7 +2991,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="64"/>
+      <c r="A83" s="69"/>
       <c r="B83" s="2" t="s">
         <v>19</v>
       </c>
@@ -2988,7 +3012,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="64"/>
+      <c r="A84" s="69"/>
       <c r="B84" s="2" t="s">
         <v>39</v>
       </c>
@@ -3008,7 +3032,7 @@
         <v>23</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -3028,8 +3052,8 @@
     </row>
     <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="72" t="s">
-        <v>69</v>
+      <c r="A88" s="79" t="s">
+        <v>68</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>18</v>
@@ -3051,7 +3075,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="73"/>
+      <c r="A89" s="80"/>
       <c r="B89" s="2" t="s">
         <v>19</v>
       </c>
@@ -3072,9 +3096,9 @@
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="74"/>
+      <c r="A90" s="81"/>
       <c r="B90" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>21</v>
@@ -3109,11 +3133,11 @@
     </row>
     <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="64" t="s">
-        <v>74</v>
+      <c r="A94" s="69" t="s">
+        <v>73</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C94" s="7">
         <v>4</v>
@@ -3132,12 +3156,12 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="64"/>
+      <c r="A95" s="69"/>
       <c r="B95" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D95" s="50">
         <v>0</v>
@@ -3152,7 +3176,7 @@
         <v>20</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -3172,8 +3196,8 @@
     </row>
     <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="99" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="64" t="s">
-        <v>79</v>
+      <c r="A99" s="69" t="s">
+        <v>78</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>9</v>
@@ -3195,12 +3219,12 @@
       </c>
     </row>
     <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="64"/>
+      <c r="A100" s="69"/>
       <c r="B100" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D100" s="50">
         <v>9.5399999999999991</v>
@@ -3232,59 +3256,139 @@
     </row>
     <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="104" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="63" t="s">
-        <v>81</v>
+      <c r="A104" s="71" t="s">
+        <v>79</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C104" s="31">
         <v>1</v>
       </c>
-      <c r="D104" s="79">
+      <c r="D104" s="63">
         <v>1.9</v>
       </c>
-      <c r="E104" s="80">
+      <c r="E104" s="64">
         <v>21</v>
       </c>
-      <c r="F104" s="80">
+      <c r="F104" s="64">
         <v>5.5</v>
       </c>
-      <c r="G104" s="81">
+      <c r="G104" s="65">
         <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="63"/>
+      <c r="A105" s="71"/>
       <c r="B105" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C105" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D105" s="82">
+      <c r="D105" s="66">
         <v>1.78</v>
       </c>
-      <c r="E105" s="83">
+      <c r="E105" s="67">
         <v>0</v>
       </c>
-      <c r="F105" s="83">
+      <c r="F105" s="67">
         <v>15.51</v>
       </c>
-      <c r="G105" s="84">
+      <c r="G105" s="68">
         <v>82</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="25"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="60"/>
+      <c r="I107" s="26"/>
+      <c r="J107" s="26"/>
+      <c r="K107" s="26"/>
+      <c r="L107" s="26"/>
+    </row>
+    <row r="108" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B109" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C109" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D109" s="47">
+        <v>2.64</v>
+      </c>
+      <c r="E109" s="24">
+        <v>21.6</v>
+      </c>
+      <c r="F109" s="24">
+        <v>7.8</v>
+      </c>
+      <c r="G109" s="45">
+        <v>142</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="71"/>
+      <c r="B110" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="48">
+        <v>4.63</v>
+      </c>
+      <c r="E110" s="17">
+        <v>0</v>
+      </c>
+      <c r="F110" s="17">
+        <v>17.73</v>
+      </c>
+      <c r="G110" s="49">
+        <v>117</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="71"/>
+      <c r="B111" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="48">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E111" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="F111" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="G111" s="49">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A20:A22"/>
+  <mergeCells count="24">
+    <mergeCell ref="A109:A111"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="A99:A100"/>
     <mergeCell ref="N8:N9"/>
@@ -3301,6 +3405,13 @@
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3325,12 +3436,12 @@
         <v>1760</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <f>A1*(20/100)</f>
@@ -3343,7 +3454,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <f>A1*(40/100)</f>
@@ -3356,7 +3467,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <f>A1*(40/100)</f>
@@ -3391,4 +3502,71 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24163BD8-7D5D-4357-9949-BC2C8FD9C9B7}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Dieta.xlsx
+++ b/Dieta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79f1909e597772fb/Dieta/dist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79f1909e597772fb/Dieta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="998" documentId="8_{90986033-560C-486B-8143-87D885832CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8062DC1D-FE80-4728-959B-DFAEB3012DAB}"/>
+  <xr:revisionPtr revIDLastSave="990" documentId="8_{90986033-560C-486B-8143-87D885832CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76B67A30-5924-4173-8ED4-EC872D7E777F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EEAF446F-95DF-4CB5-9D66-62E4FEDCD420}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
   <si>
     <t>Pão Integral</t>
   </si>
@@ -160,6 +160,9 @@
     <t>Mamão</t>
   </si>
   <si>
+    <t>DIETA 1.760kcal</t>
+  </si>
+  <si>
     <t>Pasta Dr. Peanut</t>
   </si>
   <si>
@@ -277,6 +280,9 @@
     <t>Janta (Domingo)</t>
   </si>
   <si>
+    <t>20g Frango desfiado</t>
+  </si>
+  <si>
     <t>Lanche 2 (4)</t>
   </si>
   <si>
@@ -325,10 +331,10 @@
     <t>Lanche 2 (5)</t>
   </si>
   <si>
-    <t>1 pão frances</t>
-  </si>
-  <si>
-    <t>DIETA +- 1.760kcal</t>
+    <t xml:space="preserve">Frango </t>
+  </si>
+  <si>
+    <t>20g da pequena</t>
   </si>
 </sst>
 </file>
@@ -1234,53 +1240,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1623,8 +1629,8 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A5"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,33 +1651,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
+      <c r="A1" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
       <c r="D1" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
-        <v>55</v>
+      <c r="A2" s="70" t="s">
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="22">
         <v>1.32</v>
@@ -1688,7 +1694,7 @@
       <c r="H2" s="59"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1709,12 +1715,12 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="11">
         <v>0.56999999999999995</v>
@@ -1730,12 +1736,12 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="10">
         <v>1.53</v>
@@ -1767,8 +1773,8 @@
       <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
-        <v>56</v>
+      <c r="A8" s="70" t="s">
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -1788,7 +1794,7 @@
       <c r="G8" s="55">
         <v>89</v>
       </c>
-      <c r="N8" s="72"/>
+      <c r="N8" s="71"/>
       <c r="P8" s="28"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1796,7 +1802,7 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1815,7 +1821,7 @@
       <c r="G9" s="16">
         <v>51</v>
       </c>
-      <c r="N9" s="72"/>
+      <c r="N9" s="71"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1851,8 +1857,8 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
-        <v>57</v>
+      <c r="A12" s="70" t="s">
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -1873,7 +1879,7 @@
         <v>141</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1881,9 +1887,9 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>32</v>
@@ -1901,7 +1907,7 @@
         <v>254</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1909,7 +1915,7 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1982,7 +1988,7 @@
         <v>72</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N17" s="1"/>
       <c r="P17" s="1"/>
@@ -2008,14 +2014,14 @@
       <c r="H19" s="60"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
-        <v>58</v>
+      <c r="A20" s="70" t="s">
+        <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D20" s="47">
         <v>0.1</v>
@@ -2030,11 +2036,11 @@
         <v>84</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
@@ -2054,16 +2060,16 @@
         <v>116</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D22" s="50">
         <v>0.56999999999999995</v>
@@ -2101,8 +2107,8 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
-        <v>59</v>
+      <c r="A25" s="70" t="s">
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
@@ -2123,7 +2129,7 @@
         <v>129</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2131,9 +2137,9 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>10</v>
@@ -2151,7 +2157,7 @@
         <v>215</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2185,8 +2191,8 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
-        <v>60</v>
+      <c r="A29" s="70" t="s">
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>18</v>
@@ -2212,7 +2218,7 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="2" t="s">
         <v>19</v>
       </c>
@@ -2237,12 +2243,12 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D31" s="52">
         <v>2.35</v>
@@ -2307,11 +2313,11 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="83"/>
-      <c r="C38" s="84"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="83"/>
       <c r="N38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -2326,8 +2332,8 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="79" t="s">
-        <v>61</v>
+      <c r="A40" s="78" t="s">
+        <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>0</v>
@@ -2357,12 +2363,12 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="80"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D41" s="48">
         <v>0.56999999999999995</v>
@@ -2387,7 +2393,7 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="81"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
@@ -2443,8 +2449,8 @@
     </row>
     <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="69" t="s">
-        <v>62</v>
+      <c r="A46" s="70" t="s">
+        <v>63</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>25</v>
@@ -2470,7 +2476,7 @@
       <c r="L46" s="58"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="79"/>
+      <c r="A47" s="78"/>
       <c r="B47" s="2" t="s">
         <v>2</v>
       </c>
@@ -2496,7 +2502,7 @@
       <c r="L47" s="28"/>
     </row>
     <row r="48" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="79"/>
+      <c r="A48" s="78"/>
       <c r="B48" s="2" t="s">
         <v>16</v>
       </c>
@@ -2538,14 +2544,14 @@
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="79" t="s">
-        <v>63</v>
+      <c r="A52" s="78" t="s">
+        <v>64</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D52" s="47">
         <v>0.33</v>
@@ -2565,7 +2571,7 @@
       <c r="L52" s="58"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="80"/>
+      <c r="A53" s="79"/>
       <c r="B53" s="5" t="s">
         <v>8</v>
       </c>
@@ -2591,12 +2597,12 @@
       <c r="L53" s="28"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="81"/>
+      <c r="A54" s="80"/>
       <c r="B54" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D54" s="50">
         <v>2.2999999999999998</v>
@@ -2633,8 +2639,8 @@
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="69" t="s">
-        <v>64</v>
+      <c r="A58" s="70" t="s">
+        <v>65</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>28</v>
@@ -2660,12 +2666,12 @@
       <c r="L58" s="58"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="69"/>
+      <c r="A59" s="70"/>
       <c r="B59" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D59" s="48">
         <v>8</v>
@@ -2686,7 +2692,7 @@
       <c r="L59" s="28"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="69"/>
+      <c r="A60" s="70"/>
       <c r="B60" s="2" t="s">
         <v>30</v>
       </c>
@@ -2727,13 +2733,13 @@
       <c r="L62" s="26"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64" s="76">
+      <c r="A64" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="75">
         <v>2</v>
       </c>
       <c r="I64" s="58"/>
@@ -2742,9 +2748,9 @@
       <c r="L64" s="58"/>
     </row>
     <row r="65" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="69"/>
-      <c r="B65" s="74"/>
-      <c r="C65" s="77"/>
+      <c r="A65" s="70"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="76"/>
       <c r="D65" s="42">
         <v>11.2</v>
       </c>
@@ -2764,9 +2770,9 @@
       <c r="L65" s="28"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="69"/>
-      <c r="B66" s="75"/>
-      <c r="C66" s="78"/>
+      <c r="A66" s="70"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="77"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -2788,14 +2794,14 @@
     </row>
     <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="71" t="s">
-        <v>66</v>
+      <c r="A70" s="69" t="s">
+        <v>67</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D70" s="47">
         <v>2.64</v>
@@ -2815,12 +2821,12 @@
       <c r="L70" s="58"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
+      <c r="A71" s="69"/>
       <c r="B71" s="30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D71" s="48">
         <v>0.4</v>
@@ -2834,14 +2840,16 @@
       <c r="G71" s="49">
         <v>34</v>
       </c>
-      <c r="H71" s="62"/>
+      <c r="H71" s="62" t="s">
+        <v>80</v>
+      </c>
       <c r="I71" s="28"/>
       <c r="J71" s="28"/>
       <c r="K71" s="28"/>
       <c r="L71" s="28"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
+      <c r="A72" s="69"/>
       <c r="B72" s="30" t="s">
         <v>2</v>
       </c>
@@ -2884,8 +2892,8 @@
     </row>
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="69" t="s">
-        <v>69</v>
+      <c r="A76" s="70" t="s">
+        <v>70</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>33</v>
@@ -2907,7 +2915,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="69"/>
+      <c r="A77" s="70"/>
       <c r="B77" s="2" t="s">
         <v>34</v>
       </c>
@@ -2928,7 +2936,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="69"/>
+      <c r="A78" s="70"/>
       <c r="B78" s="2" t="s">
         <v>35</v>
       </c>
@@ -2968,8 +2976,8 @@
     </row>
     <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="69" t="s">
-        <v>67</v>
+      <c r="A82" s="70" t="s">
+        <v>68</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>37</v>
@@ -2991,7 +2999,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="69"/>
+      <c r="A83" s="70"/>
       <c r="B83" s="2" t="s">
         <v>19</v>
       </c>
@@ -3012,7 +3020,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="69"/>
+      <c r="A84" s="70"/>
       <c r="B84" s="2" t="s">
         <v>39</v>
       </c>
@@ -3032,7 +3040,7 @@
         <v>23</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -3052,8 +3060,8 @@
     </row>
     <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="79" t="s">
-        <v>68</v>
+      <c r="A88" s="78" t="s">
+        <v>69</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>18</v>
@@ -3075,7 +3083,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="80"/>
+      <c r="A89" s="79"/>
       <c r="B89" s="2" t="s">
         <v>19</v>
       </c>
@@ -3096,9 +3104,9 @@
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="81"/>
+      <c r="A90" s="80"/>
       <c r="B90" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>21</v>
@@ -3133,11 +3141,11 @@
     </row>
     <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="69" t="s">
-        <v>73</v>
+      <c r="A94" s="70" t="s">
+        <v>74</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C94" s="7">
         <v>4</v>
@@ -3154,14 +3162,17 @@
       <c r="G94" s="45">
         <v>86</v>
       </c>
+      <c r="H94" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="69"/>
+      <c r="A95" s="70"/>
       <c r="B95" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D95" s="50">
         <v>0</v>
@@ -3176,7 +3187,7 @@
         <v>20</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -3196,8 +3207,8 @@
     </row>
     <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="99" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="69" t="s">
-        <v>78</v>
+      <c r="A99" s="70" t="s">
+        <v>79</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>9</v>
@@ -3219,12 +3230,12 @@
       </c>
     </row>
     <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="69"/>
+      <c r="A100" s="70"/>
       <c r="B100" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D100" s="50">
         <v>9.5399999999999991</v>
@@ -3256,11 +3267,11 @@
     </row>
     <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="104" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="71" t="s">
-        <v>79</v>
+      <c r="A104" s="69" t="s">
+        <v>81</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C104" s="31">
         <v>1</v>
@@ -3279,7 +3290,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="71"/>
+      <c r="A105" s="69"/>
       <c r="B105" s="30" t="s">
         <v>16</v>
       </c>
@@ -3316,14 +3327,14 @@
     </row>
     <row r="108" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="71" t="s">
-        <v>94</v>
+      <c r="A109" s="69" t="s">
+        <v>96</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D109" s="47">
         <v>2.64</v>
@@ -3337,36 +3348,30 @@
       <c r="G109" s="45">
         <v>142</v>
       </c>
-      <c r="H109" s="4" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="71"/>
+      <c r="A110" s="69"/>
       <c r="B110" s="30" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D110" s="48">
-        <v>4.63</v>
+        <v>3.09</v>
       </c>
       <c r="E110" s="17">
         <v>0</v>
       </c>
       <c r="F110" s="17">
-        <v>17.73</v>
+        <v>11.82</v>
       </c>
       <c r="G110" s="49">
-        <v>117</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="71"/>
+      <c r="A111" s="69"/>
       <c r="B111" s="30" t="s">
         <v>2</v>
       </c>
@@ -3388,6 +3393,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="A109:A111"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="A99:A100"/>
@@ -3404,14 +3417,6 @@
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3436,12 +3441,12 @@
         <v>1760</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <f>A1*(20/100)</f>
@@ -3454,7 +3459,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <f>A1*(40/100)</f>
@@ -3467,7 +3472,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <f>A1*(40/100)</f>
@@ -3520,21 +3525,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -3551,7 +3556,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1">
         <v>0.8</v>

--- a/Dieta.xlsx
+++ b/Dieta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79f1909e597772fb/Dieta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="990" documentId="8_{90986033-560C-486B-8143-87D885832CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76B67A30-5924-4173-8ED4-EC872D7E777F}"/>
+  <xr:revisionPtr revIDLastSave="992" documentId="8_{90986033-560C-486B-8143-87D885832CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{805E10FE-D4E1-4DAF-9A3B-6A4CCDE464AB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EEAF446F-95DF-4CB5-9D66-62E4FEDCD420}"/>
   </bookViews>
@@ -334,7 +334,7 @@
     <t xml:space="preserve">Frango </t>
   </si>
   <si>
-    <t>20g da pequena</t>
+    <t>32g pequena</t>
   </si>
 </sst>
 </file>
@@ -1240,12 +1240,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1284,9 +1287,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1303,10 +1303,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1629,7 +1625,7 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
@@ -1651,11 +1647,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
       <c r="D1" s="21" t="s">
         <v>43</v>
       </c>
@@ -1670,7 +1666,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="69" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1694,7 +1690,7 @@
       <c r="H2" s="59"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1715,7 +1711,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1736,7 +1732,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1773,7 +1769,7 @@
       <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="69" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1794,7 +1790,7 @@
       <c r="G8" s="55">
         <v>89</v>
       </c>
-      <c r="N8" s="71"/>
+      <c r="N8" s="72"/>
       <c r="P8" s="28"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1802,7 +1798,7 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1821,7 +1817,7 @@
       <c r="G9" s="16">
         <v>51</v>
       </c>
-      <c r="N9" s="71"/>
+      <c r="N9" s="72"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1857,7 +1853,7 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="69" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1887,7 +1883,7 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
@@ -1915,7 +1911,7 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -2014,7 +2010,7 @@
       <c r="H19" s="60"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="69" t="s">
         <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2040,7 +2036,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
@@ -2064,7 +2060,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="70"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
@@ -2107,7 +2103,7 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="69" t="s">
         <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2137,7 +2133,7 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="70"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2191,7 +2187,7 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="69" t="s">
         <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2218,7 +2214,7 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="2" t="s">
         <v>19</v>
       </c>
@@ -2243,7 +2239,7 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="70"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="2" t="s">
         <v>20</v>
       </c>
@@ -2313,11 +2309,11 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="82"/>
-      <c r="C38" s="83"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="84"/>
       <c r="N38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -2332,7 +2328,7 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="78" t="s">
+      <c r="A40" s="79" t="s">
         <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2363,7 +2359,7 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="79"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="2" t="s">
         <v>2</v>
       </c>
@@ -2393,7 +2389,7 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="80"/>
+      <c r="A42" s="81"/>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
@@ -2449,7 +2445,7 @@
     </row>
     <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="70" t="s">
+      <c r="A46" s="69" t="s">
         <v>63</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2476,7 +2472,7 @@
       <c r="L46" s="58"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="78"/>
+      <c r="A47" s="79"/>
       <c r="B47" s="2" t="s">
         <v>2</v>
       </c>
@@ -2502,7 +2498,7 @@
       <c r="L47" s="28"/>
     </row>
     <row r="48" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="78"/>
+      <c r="A48" s="79"/>
       <c r="B48" s="2" t="s">
         <v>16</v>
       </c>
@@ -2544,7 +2540,7 @@
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="78" t="s">
+      <c r="A52" s="79" t="s">
         <v>64</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -2571,7 +2567,7 @@
       <c r="L52" s="58"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="79"/>
+      <c r="A53" s="80"/>
       <c r="B53" s="5" t="s">
         <v>8</v>
       </c>
@@ -2597,7 +2593,7 @@
       <c r="L53" s="28"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="80"/>
+      <c r="A54" s="81"/>
       <c r="B54" s="5" t="s">
         <v>41</v>
       </c>
@@ -2639,7 +2635,7 @@
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="70" t="s">
+      <c r="A58" s="69" t="s">
         <v>65</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -2666,7 +2662,7 @@
       <c r="L58" s="58"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="70"/>
+      <c r="A59" s="69"/>
       <c r="B59" s="2" t="s">
         <v>29</v>
       </c>
@@ -2692,7 +2688,7 @@
       <c r="L59" s="28"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="70"/>
+      <c r="A60" s="69"/>
       <c r="B60" s="2" t="s">
         <v>30</v>
       </c>
@@ -2733,13 +2729,13 @@
       <c r="L62" s="26"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="70" t="s">
+      <c r="A64" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="72" t="s">
+      <c r="B64" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C64" s="75">
+      <c r="C64" s="76">
         <v>2</v>
       </c>
       <c r="I64" s="58"/>
@@ -2748,9 +2744,9 @@
       <c r="L64" s="58"/>
     </row>
     <row r="65" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="70"/>
-      <c r="B65" s="73"/>
-      <c r="C65" s="76"/>
+      <c r="A65" s="69"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="77"/>
       <c r="D65" s="42">
         <v>11.2</v>
       </c>
@@ -2770,9 +2766,9 @@
       <c r="L65" s="28"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="70"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="77"/>
+      <c r="A66" s="69"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="78"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -2794,7 +2790,7 @@
     </row>
     <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="69" t="s">
+      <c r="A70" s="71" t="s">
         <v>67</v>
       </c>
       <c r="B70" s="30" t="s">
@@ -2821,7 +2817,7 @@
       <c r="L70" s="58"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="69"/>
+      <c r="A71" s="71"/>
       <c r="B71" s="30" t="s">
         <v>54</v>
       </c>
@@ -2849,7 +2845,7 @@
       <c r="L71" s="28"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="69"/>
+      <c r="A72" s="71"/>
       <c r="B72" s="30" t="s">
         <v>2</v>
       </c>
@@ -2892,7 +2888,7 @@
     </row>
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="70" t="s">
+      <c r="A76" s="69" t="s">
         <v>70</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -2915,7 +2911,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="70"/>
+      <c r="A77" s="69"/>
       <c r="B77" s="2" t="s">
         <v>34</v>
       </c>
@@ -2936,7 +2932,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="70"/>
+      <c r="A78" s="69"/>
       <c r="B78" s="2" t="s">
         <v>35</v>
       </c>
@@ -2976,7 +2972,7 @@
     </row>
     <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="70" t="s">
+      <c r="A82" s="69" t="s">
         <v>68</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -2999,7 +2995,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="70"/>
+      <c r="A83" s="69"/>
       <c r="B83" s="2" t="s">
         <v>19</v>
       </c>
@@ -3020,7 +3016,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="70"/>
+      <c r="A84" s="69"/>
       <c r="B84" s="2" t="s">
         <v>39</v>
       </c>
@@ -3060,7 +3056,7 @@
     </row>
     <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="78" t="s">
+      <c r="A88" s="79" t="s">
         <v>69</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -3083,7 +3079,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="79"/>
+      <c r="A89" s="80"/>
       <c r="B89" s="2" t="s">
         <v>19</v>
       </c>
@@ -3104,7 +3100,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="80"/>
+      <c r="A90" s="81"/>
       <c r="B90" s="2" t="s">
         <v>41</v>
       </c>
@@ -3141,7 +3137,7 @@
     </row>
     <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="70" t="s">
+      <c r="A94" s="69" t="s">
         <v>74</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -3167,7 +3163,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="70"/>
+      <c r="A95" s="69"/>
       <c r="B95" s="2" t="s">
         <v>73</v>
       </c>
@@ -3207,7 +3203,7 @@
     </row>
     <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="99" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="70" t="s">
+      <c r="A99" s="69" t="s">
         <v>79</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -3230,7 +3226,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="70"/>
+      <c r="A100" s="69"/>
       <c r="B100" s="2" t="s">
         <v>50</v>
       </c>
@@ -3267,7 +3263,7 @@
     </row>
     <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="104" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="69" t="s">
+      <c r="A104" s="71" t="s">
         <v>81</v>
       </c>
       <c r="B104" s="30" t="s">
@@ -3290,7 +3286,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="69"/>
+      <c r="A105" s="71"/>
       <c r="B105" s="30" t="s">
         <v>16</v>
       </c>
@@ -3327,7 +3323,7 @@
     </row>
     <row r="108" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="69" t="s">
+      <c r="A109" s="71" t="s">
         <v>96</v>
       </c>
       <c r="B109" s="30" t="s">
@@ -3350,7 +3346,7 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="69"/>
+      <c r="A110" s="71"/>
       <c r="B110" s="30" t="s">
         <v>97</v>
       </c>
@@ -3371,7 +3367,7 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="69"/>
+      <c r="A111" s="71"/>
       <c r="B111" s="30" t="s">
         <v>2</v>
       </c>
@@ -3393,14 +3389,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A20:A22"/>
     <mergeCell ref="A109:A111"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="A99:A100"/>
@@ -3417,6 +3405,14 @@
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
